--- a/data/trains.xlsx
+++ b/data/trains.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Years\Second Year\Java\Railway_Reservation_Console_Mk_1\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{924FBAFB-DB9C-466A-9D20-86F5D4123C67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29CCFED3-8449-4265-ACFB-19F26E499CBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1090,7 +1090,7 @@
   <dimension ref="A1:E101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:E101"/>
+      <selection activeCell="C114" sqref="C114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>

--- a/data/trains.xlsx
+++ b/data/trains.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1005" uniqueCount="459">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1005" uniqueCount="509">
   <si>
     <t>Train Number</t>
   </si>
@@ -56,291 +56,318 @@
     <t>Howrah</t>
   </si>
   <si>
+    <t>AC2:50|50|1600.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|10|25|0:0:0;AC3:120|119|1200.0|XOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|25|75|0:0:0;AC1:24|24|2400.0|OOOOOOOOOOOOOOOOOOOOOOOO|5|10|0:0:0;</t>
+  </si>
+  <si>
+    <t>22003</t>
+  </si>
+  <si>
+    <t>AC2:50|49|1600.0|XOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|10|25|0:0:0;AC3:120|120|1200.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|25|75|0:0:0;AC1:24|24|2400.0|OOOOOOOOOOOOOOOOOOOOOOOO|5|10|0:0:0;</t>
+  </si>
+  <si>
+    <t>12004</t>
+  </si>
+  <si>
+    <t>Chennai Central Rajdhani</t>
+  </si>
+  <si>
+    <t>Chennai Central</t>
+  </si>
+  <si>
+    <t>AC2:50|50|1960.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|10|25|0:0:0;AC3:120|120|1470.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|25|75|0:0:0;AC1:24|24|2940.0|OOOOOOOOOOOOOOOOOOOOOOOO|5|10|0:0:0;</t>
+  </si>
+  <si>
+    <t>22005</t>
+  </si>
+  <si>
+    <t>12006</t>
+  </si>
+  <si>
+    <t>Bangalore Rajdhani</t>
+  </si>
+  <si>
+    <t>Bangalore</t>
+  </si>
+  <si>
+    <t>AC2:50|50|1720.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|10|25|0:0:0;AC3:120|120|1290.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|25|75|0:0:0;AC1:24|24|2580.0|OOOOOOOOOOOOOOOOOOOOOOOO|5|10|0:0:0;</t>
+  </si>
+  <si>
+    <t>22007</t>
+  </si>
+  <si>
+    <t>AC2:50|50|1720.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|10|25|0:0:0;AC3:120|119|1290.0|XOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|25|75|0:0:0;AC1:24|24|2580.0|OOOOOOOOOOOOOOOOOOOOOOOO|5|10|0:0:0;</t>
+  </si>
+  <si>
+    <t>12008</t>
+  </si>
+  <si>
+    <t>Secunderabad Rajdhani</t>
+  </si>
+  <si>
+    <t>Secunderabad</t>
+  </si>
+  <si>
+    <t>AC2:50|49|1840.0|XOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|10|25|0:0:0;AC3:120|120|1380.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|25|75|0:0:0;AC1:24|24|2760.0|OOOOOOOOOOOOOOOOOOOOOOOO|5|10|0:0:0;</t>
+  </si>
+  <si>
+    <t>22009</t>
+  </si>
+  <si>
+    <t>AC2:50|50|1840.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|10|25|0:0:0;AC3:120|120|1380.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|25|75|0:0:0;AC1:24|24|2760.0|OOOOOOOOOOOOOOOOOOOOOOOO|5|10|0:0:0;</t>
+  </si>
+  <si>
+    <t>12010</t>
+  </si>
+  <si>
+    <t>Ahmedabad Rajdhani</t>
+  </si>
+  <si>
+    <t>Ahmedabad</t>
+  </si>
+  <si>
+    <t>22011</t>
+  </si>
+  <si>
+    <t>12012</t>
+  </si>
+  <si>
+    <t>Pune Rajdhani</t>
+  </si>
+  <si>
+    <t>Pune</t>
+  </si>
+  <si>
+    <t>AC2:50|50|1520.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|10|25|0:0:0;AC3:120|120|1140.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|25|75|0:0:0;AC1:24|24|2280.0|OOOOOOOOOOOOOOOOOOOOOOOO|5|10|0:0:0;</t>
+  </si>
+  <si>
+    <t>22013</t>
+  </si>
+  <si>
+    <t>12014</t>
+  </si>
+  <si>
+    <t>Patna Rajdhani</t>
+  </si>
+  <si>
+    <t>Patna</t>
+  </si>
+  <si>
+    <t>AC2:50|50|1560.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|10|25|0:0:0;AC3:120|119|1170.0|XOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|25|75|0:0:0;AC1:24|24|2340.0|OOOOOOOOOOOOOOOOOOOOOOOO|5|10|0:0:0;</t>
+  </si>
+  <si>
+    <t>22015</t>
+  </si>
+  <si>
+    <t>AC2:50|49|1560.0|XOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|10|25|0:0:0;AC3:120|120|1170.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|25|75|0:0:0;AC1:24|24|2340.0|OOOOOOOOOOOOOOOOOOOOOOOO|5|10|0:0:0;</t>
+  </si>
+  <si>
+    <t>12016</t>
+  </si>
+  <si>
+    <t>Jaipur Rajdhani</t>
+  </si>
+  <si>
+    <t>Jaipur</t>
+  </si>
+  <si>
+    <t>22017</t>
+  </si>
+  <si>
+    <t>12018</t>
+  </si>
+  <si>
+    <t>Lucknow Rajdhani</t>
+  </si>
+  <si>
+    <t>Lucknow</t>
+  </si>
+  <si>
+    <t>AC2:50|50|1640.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|10|25|0:0:0;AC3:120|120|1230.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|25|75|0:0:0;AC1:24|24|2460.0|OOOOOOOOOOOOOOOOOOOOOOOO|5|10|0:0:0;</t>
+  </si>
+  <si>
+    <t>22019</t>
+  </si>
+  <si>
+    <t>12020</t>
+  </si>
+  <si>
+    <t>Trivandrum Rajdhani</t>
+  </si>
+  <si>
+    <t>Trivandrum</t>
+  </si>
+  <si>
+    <t>AC2:50|50|1760.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|10|25|0:0:0;AC3:120|120|1320.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|25|75|0:0:0;AC1:24|24|2640.0|OOOOOOOOOOOOOOOOOOOOOOOO|5|10|0:0:0;</t>
+  </si>
+  <si>
+    <t>22021</t>
+  </si>
+  <si>
+    <t>12022</t>
+  </si>
+  <si>
+    <t>Bhopal Rajdhani</t>
+  </si>
+  <si>
+    <t>Bhopal</t>
+  </si>
+  <si>
+    <t>22023</t>
+  </si>
+  <si>
     <t>AC2:50|50|1600.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|10|25|0:0:0;AC3:120|120|1200.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|25|75|0:0:0;AC1:24|24|2400.0|OOOOOOOOOOOOOOOOOOOOOOOO|5|10|0:0:0;</t>
   </si>
   <si>
-    <t>22003</t>
-  </si>
-  <si>
-    <t>12004</t>
-  </si>
-  <si>
-    <t>Chennai Central Rajdhani</t>
-  </si>
-  <si>
-    <t>Chennai Central</t>
-  </si>
-  <si>
-    <t>AC2:50|50|1960.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|10|25|0:0:0;AC3:120|120|1470.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|25|75|0:0:0;AC1:24|24|2940.0|OOOOOOOOOOOOOOOOOOOOOOOO|5|10|0:0:0;</t>
-  </si>
-  <si>
-    <t>22005</t>
-  </si>
-  <si>
-    <t>12006</t>
-  </si>
-  <si>
-    <t>Bangalore Rajdhani</t>
-  </si>
-  <si>
-    <t>Bangalore</t>
-  </si>
-  <si>
-    <t>AC2:50|50|1720.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|10|25|0:0:0;AC3:120|120|1290.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|25|75|0:0:0;AC1:24|24|2580.0|OOOOOOOOOOOOOOOOOOOOOOOO|5|10|0:0:0;</t>
-  </si>
-  <si>
-    <t>22007</t>
-  </si>
-  <si>
-    <t>12008</t>
-  </si>
-  <si>
-    <t>Secunderabad Rajdhani</t>
-  </si>
-  <si>
-    <t>Secunderabad</t>
-  </si>
-  <si>
-    <t>AC2:50|50|1840.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|10|25|0:0:0;AC3:120|120|1380.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|25|75|0:0:0;AC1:24|24|2760.0|OOOOOOOOOOOOOOOOOOOOOOOO|5|10|0:0:0;</t>
-  </si>
-  <si>
-    <t>22009</t>
-  </si>
-  <si>
-    <t>12010</t>
-  </si>
-  <si>
-    <t>Ahmedabad Rajdhani</t>
-  </si>
-  <si>
-    <t>Ahmedabad</t>
-  </si>
-  <si>
-    <t>22011</t>
-  </si>
-  <si>
-    <t>12012</t>
-  </si>
-  <si>
-    <t>Pune Rajdhani</t>
-  </si>
-  <si>
-    <t>Pune</t>
-  </si>
-  <si>
-    <t>AC2:50|50|1520.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|10|25|0:0:0;AC3:120|120|1140.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|25|75|0:0:0;AC1:24|24|2280.0|OOOOOOOOOOOOOOOOOOOOOOOO|5|10|0:0:0;</t>
-  </si>
-  <si>
-    <t>22013</t>
-  </si>
-  <si>
-    <t>12014</t>
-  </si>
-  <si>
-    <t>Patna Rajdhani</t>
-  </si>
-  <si>
-    <t>Patna</t>
+    <t>12024</t>
+  </si>
+  <si>
+    <t>Guwahati Rajdhani</t>
+  </si>
+  <si>
+    <t>Guwahati</t>
+  </si>
+  <si>
+    <t>AC2:50|50|1680.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|10|25|0:0:0;AC3:120|120|1260.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|25|75|0:0:0;AC1:24|24|2520.0|OOOOOOOOOOOOOOOOOOOOOOOO|5|10|0:0:0;</t>
+  </si>
+  <si>
+    <t>22025</t>
+  </si>
+  <si>
+    <t>12026</t>
+  </si>
+  <si>
+    <t>Bhubaneswar Rajdhani</t>
+  </si>
+  <si>
+    <t>Bhubaneswar</t>
+  </si>
+  <si>
+    <t>AC2:50|50|1800.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|10|25|0:0:0;AC3:120|120|1350.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|25|75|0:0:0;AC1:24|22|2700.0|XXOOOOOOOOOOOOOOOOOOOOOO|5|10|0:0:0;</t>
+  </si>
+  <si>
+    <t>22027</t>
+  </si>
+  <si>
+    <t>AC2:50|50|1800.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|10|25|0:0:0;AC3:120|120|1350.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|25|75|0:0:0;AC1:24|24|2700.0|OOOOOOOOOOOOOOOOOOOOOOOO|5|10|0:0:0;</t>
+  </si>
+  <si>
+    <t>12028</t>
+  </si>
+  <si>
+    <t>Ranchi Rajdhani</t>
+  </si>
+  <si>
+    <t>Ranchi</t>
+  </si>
+  <si>
+    <t>22029</t>
+  </si>
+  <si>
+    <t>12030</t>
+  </si>
+  <si>
+    <t>Dehradun Rajdhani</t>
+  </si>
+  <si>
+    <t>Dehradun</t>
+  </si>
+  <si>
+    <t>22031</t>
+  </si>
+  <si>
+    <t>12032</t>
+  </si>
+  <si>
+    <t>Varanasi Rajdhani</t>
+  </si>
+  <si>
+    <t>Varanasi</t>
+  </si>
+  <si>
+    <t>22033</t>
+  </si>
+  <si>
+    <t>AC2:50|50|1680.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|10|25|0:0:0;AC3:120|120|1260.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|25|75|0:0:0;AC1:24|23|2520.0|XOOOOOOOOOOOOOOOOOOOOOOO|5|10|0:0:0;</t>
+  </si>
+  <si>
+    <t>12034</t>
+  </si>
+  <si>
+    <t>Amritsar Rajdhani</t>
+  </si>
+  <si>
+    <t>Amritsar</t>
+  </si>
+  <si>
+    <t>22035</t>
+  </si>
+  <si>
+    <t>12036</t>
+  </si>
+  <si>
+    <t>Jammu Tawi Rajdhani</t>
+  </si>
+  <si>
+    <t>Jammu Tawi</t>
+  </si>
+  <si>
+    <t>22037</t>
+  </si>
+  <si>
+    <t>12038</t>
+  </si>
+  <si>
+    <t>Goa (Madgaon) Rajdhani</t>
+  </si>
+  <si>
+    <t>Goa (Madgaon)</t>
+  </si>
+  <si>
+    <t>AC2:50|50|1880.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|10|25|0:0:0;AC3:120|119|1410.0|XOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|25|75|0:0:0;AC1:24|24|2820.0|OOOOOOOOOOOOOOOOOOOOOOOO|5|10|0:0:0;</t>
+  </si>
+  <si>
+    <t>22039</t>
+  </si>
+  <si>
+    <t>AC2:50|50|1880.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|10|25|0:0:0;AC3:120|120|1410.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|25|75|0:0:0;AC1:24|24|2820.0|OOOOOOOOOOOOOOOOOOOOOOOO|5|10|0:0:0;</t>
+  </si>
+  <si>
+    <t>12040</t>
+  </si>
+  <si>
+    <t>Nagpur Rajdhani</t>
+  </si>
+  <si>
+    <t>Nagpur</t>
+  </si>
+  <si>
+    <t>22041</t>
+  </si>
+  <si>
+    <t>12042</t>
+  </si>
+  <si>
+    <t>Indore Rajdhani</t>
+  </si>
+  <si>
+    <t>Indore</t>
+  </si>
+  <si>
+    <t>22043</t>
+  </si>
+  <si>
+    <t>12044</t>
+  </si>
+  <si>
+    <t>Surat Rajdhani</t>
+  </si>
+  <si>
+    <t>Surat</t>
   </si>
   <si>
     <t>AC2:50|50|1560.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|10|25|0:0:0;AC3:120|120|1170.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|25|75|0:0:0;AC1:24|24|2340.0|OOOOOOOOOOOOOOOOOOOOOOOO|5|10|0:0:0;</t>
   </si>
   <si>
-    <t>22015</t>
-  </si>
-  <si>
-    <t>12016</t>
-  </si>
-  <si>
-    <t>Jaipur Rajdhani</t>
-  </si>
-  <si>
-    <t>Jaipur</t>
-  </si>
-  <si>
-    <t>22017</t>
-  </si>
-  <si>
-    <t>12018</t>
-  </si>
-  <si>
-    <t>Lucknow Rajdhani</t>
-  </si>
-  <si>
-    <t>Lucknow</t>
-  </si>
-  <si>
-    <t>AC2:50|50|1640.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|10|25|0:0:0;AC3:120|120|1230.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|25|75|0:0:0;AC1:24|24|2460.0|OOOOOOOOOOOOOOOOOOOOOOOO|5|10|0:0:0;</t>
-  </si>
-  <si>
-    <t>22019</t>
-  </si>
-  <si>
-    <t>12020</t>
-  </si>
-  <si>
-    <t>Trivandrum Rajdhani</t>
-  </si>
-  <si>
-    <t>Trivandrum</t>
-  </si>
-  <si>
-    <t>AC2:50|50|1760.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|10|25|0:0:0;AC3:120|120|1320.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|25|75|0:0:0;AC1:24|24|2640.0|OOOOOOOOOOOOOOOOOOOOOOOO|5|10|0:0:0;</t>
-  </si>
-  <si>
-    <t>22021</t>
-  </si>
-  <si>
-    <t>12022</t>
-  </si>
-  <si>
-    <t>Bhopal Rajdhani</t>
-  </si>
-  <si>
-    <t>Bhopal</t>
-  </si>
-  <si>
-    <t>22023</t>
-  </si>
-  <si>
-    <t>12024</t>
-  </si>
-  <si>
-    <t>Guwahati Rajdhani</t>
-  </si>
-  <si>
-    <t>Guwahati</t>
-  </si>
-  <si>
-    <t>AC2:50|50|1680.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|10|25|0:0:0;AC3:120|120|1260.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|25|75|0:0:0;AC1:24|24|2520.0|OOOOOOOOOOOOOOOOOOOOOOOO|5|10|0:0:0;</t>
-  </si>
-  <si>
-    <t>22025</t>
-  </si>
-  <si>
-    <t>12026</t>
-  </si>
-  <si>
-    <t>Bhubaneswar Rajdhani</t>
-  </si>
-  <si>
-    <t>Bhubaneswar</t>
-  </si>
-  <si>
-    <t>AC2:50|50|1800.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|10|25|0:0:0;AC3:120|120|1350.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|25|75|0:0:0;AC1:24|24|2700.0|OOOOOOOOOOOOOOOOOOOOOOOO|5|10|0:0:0;</t>
-  </si>
-  <si>
-    <t>22027</t>
-  </si>
-  <si>
-    <t>12028</t>
-  </si>
-  <si>
-    <t>Ranchi Rajdhani</t>
-  </si>
-  <si>
-    <t>Ranchi</t>
-  </si>
-  <si>
-    <t>22029</t>
-  </si>
-  <si>
-    <t>12030</t>
-  </si>
-  <si>
-    <t>Dehradun Rajdhani</t>
-  </si>
-  <si>
-    <t>Dehradun</t>
-  </si>
-  <si>
-    <t>22031</t>
-  </si>
-  <si>
-    <t>12032</t>
-  </si>
-  <si>
-    <t>Varanasi Rajdhani</t>
-  </si>
-  <si>
-    <t>Varanasi</t>
-  </si>
-  <si>
-    <t>22033</t>
-  </si>
-  <si>
-    <t>12034</t>
-  </si>
-  <si>
-    <t>Amritsar Rajdhani</t>
-  </si>
-  <si>
-    <t>Amritsar</t>
-  </si>
-  <si>
-    <t>22035</t>
-  </si>
-  <si>
-    <t>12036</t>
-  </si>
-  <si>
-    <t>Jammu Tawi Rajdhani</t>
-  </si>
-  <si>
-    <t>Jammu Tawi</t>
-  </si>
-  <si>
-    <t>22037</t>
-  </si>
-  <si>
-    <t>12038</t>
-  </si>
-  <si>
-    <t>Goa (Madgaon) Rajdhani</t>
-  </si>
-  <si>
-    <t>Goa (Madgaon)</t>
-  </si>
-  <si>
-    <t>AC2:50|50|1880.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|10|25|0:0:0;AC3:120|120|1410.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|25|75|0:0:0;AC1:24|24|2820.0|OOOOOOOOOOOOOOOOOOOOOOOO|5|10|0:0:0;</t>
-  </si>
-  <si>
-    <t>22039</t>
-  </si>
-  <si>
-    <t>12040</t>
-  </si>
-  <si>
-    <t>Nagpur Rajdhani</t>
-  </si>
-  <si>
-    <t>Nagpur</t>
-  </si>
-  <si>
-    <t>22041</t>
-  </si>
-  <si>
-    <t>12042</t>
-  </si>
-  <si>
-    <t>Indore Rajdhani</t>
-  </si>
-  <si>
-    <t>Indore</t>
-  </si>
-  <si>
-    <t>22043</t>
-  </si>
-  <si>
-    <t>12044</t>
-  </si>
-  <si>
-    <t>Surat Rajdhani</t>
-  </si>
-  <si>
-    <t>Surat</t>
-  </si>
-  <si>
     <t>22045</t>
   </si>
   <si>
@@ -356,6 +383,9 @@
     <t>22047</t>
   </si>
   <si>
+    <t>AC2:50|50|1680.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|10|25|0:0:0;AC3:120|119|1260.0|XOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|25|75|0:0:0;AC1:24|24|2520.0|OOOOOOOOOOOOOOOOOOOOOOOO|5|10|0:0:0;</t>
+  </si>
+  <si>
     <t>12048</t>
   </si>
   <si>
@@ -365,1030 +395,1150 @@
     <t>Kanpur</t>
   </si>
   <si>
+    <t>AC2:50|50|1600.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|10|25|0:0:0;AC3:120|119|1200.0|XOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|25|75|0:0:0;AC1:24|23|2400.0|XOOOOOOOOOOOOOOOOOOOOOOO|5|10|0:0:0;</t>
+  </si>
+  <si>
     <t>22049</t>
   </si>
   <si>
-    <t>80292</t>
-  </si>
-  <si>
-    <t>Guwahati - Allahabad Shatabdi Exp</t>
+    <t>45655</t>
+  </si>
+  <si>
+    <t>Jaipur - Vadodara Garib Rath</t>
+  </si>
+  <si>
+    <t>AC3:400|400|848.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|50|150|0:0:0;</t>
+  </si>
+  <si>
+    <t>94115</t>
+  </si>
+  <si>
+    <t>Nagpur - Gorakhpur Superfast Exp</t>
+  </si>
+  <si>
+    <t>Gorakhpur</t>
+  </si>
+  <si>
+    <t>AC2:40|40|2280.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|10|20|0:0:0;AC3:64|64|1710.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|20|50|0:0:0;SLEEPER:300|300|684.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|50|200|0:0:0;GENERAL:100|100|342.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|0|0|0:0:0;</t>
+  </si>
+  <si>
+    <t>56670</t>
+  </si>
+  <si>
+    <t>Dehradun - Patna Passenger</t>
+  </si>
+  <si>
+    <t>GENERAL:200|200|306.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|0|0|0:0:0;</t>
+  </si>
+  <si>
+    <t>79532</t>
+  </si>
+  <si>
+    <t>Chennai Central - Coimbatore Passenger</t>
+  </si>
+  <si>
+    <t>Coimbatore</t>
+  </si>
+  <si>
+    <t>GENERAL:200|200|378.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|0|0|0:0:0;</t>
+  </si>
+  <si>
+    <t>79619</t>
+  </si>
+  <si>
+    <t>Mumbai Central - Vadodara Superfast Exp</t>
+  </si>
+  <si>
+    <t>AC2:40|39|2560.0|XOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|10|20|0:0:0;AC3:64|64|1920.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|20|50|0:0:0;SLEEPER:300|300|768.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|50|200|0:0:0;GENERAL:100|100|384.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|0|0|0:0:0;</t>
+  </si>
+  <si>
+    <t>23578</t>
+  </si>
+  <si>
+    <t>Nagpur - Indore Superfast Exp</t>
+  </si>
+  <si>
+    <t>AC2:40|40|2160.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|10|20|0:0:0;AC3:64|64|1620.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|20|50|0:0:0;SLEEPER:300|300|648.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|50|200|0:0:0;GENERAL:100|100|324.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|0|0|0:0:0;</t>
+  </si>
+  <si>
+    <t>24059</t>
+  </si>
+  <si>
+    <t>Coimbatore - Patna Superfast Exp</t>
+  </si>
+  <si>
+    <t>52403</t>
+  </si>
+  <si>
+    <t>Chennai Central - Allahabad Superfast Exp</t>
   </si>
   <si>
     <t>Allahabad</t>
   </si>
   <si>
-    <t>CC:150|150|1392.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|20|50|0:0:0;EXEC:40|40|2900.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|5|10|0:0:0;</t>
-  </si>
-  <si>
-    <t>39203</t>
-  </si>
-  <si>
-    <t>New Delhi - Pune Garib Rath</t>
-  </si>
-  <si>
-    <t>AC3:400|400|832.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|50|150|0:0:0;</t>
-  </si>
-  <si>
-    <t>50917</t>
-  </si>
-  <si>
-    <t>Pune - Guwahati Superfast Exp</t>
-  </si>
-  <si>
-    <t>AC2:40|40|2160.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|10|20|0:0:0;AC3:64|64|1620.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|20|50|0:0:0;SLEEPER:300|300|648.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|50|200|0:0:0;GENERAL:100|100|324.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|0|0|0:0:0;</t>
-  </si>
-  <si>
-    <t>17251</t>
-  </si>
-  <si>
-    <t>Gorakhpur - Bhubaneswar Superfast Exp</t>
-  </si>
-  <si>
-    <t>Gorakhpur</t>
+    <t>AC2:40|40|2640.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|10|20|0:0:0;AC3:64|64|1980.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|20|50|0:0:0;SLEEPER:300|300|792.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|50|200|0:0:0;GENERAL:100|100|396.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|0|0|0:0:0;</t>
+  </si>
+  <si>
+    <t>48673</t>
+  </si>
+  <si>
+    <t>Bangalore - Nagpur Shatabdi Exp</t>
+  </si>
+  <si>
+    <t>CC:150|149|1344.0|XOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|20|50|0:0:0;EXEC:40|40|2800.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|5|10|0:0:0;</t>
+  </si>
+  <si>
+    <t>52212</t>
+  </si>
+  <si>
+    <t>Dehradun - Nagpur Superfast Exp</t>
+  </si>
+  <si>
+    <t>AC2:40|40|2240.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|10|20|0:0:0;AC3:64|64|1680.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|20|50|0:0:0;SLEEPER:300|299|672.0|XOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|50|200|0:0:0;GENERAL:100|100|336.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|0|0|0:0:0;</t>
+  </si>
+  <si>
+    <t>32337</t>
+  </si>
+  <si>
+    <t>Gorakhpur - Allahabad Superfast Exp</t>
+  </si>
+  <si>
+    <t>AC2:40|40|2400.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|10|20|0:0:0;AC3:64|64|1800.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|20|50|0:0:0;SLEEPER:300|300|720.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|50|200|0:0:0;GENERAL:100|100|360.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|0|0|0:0:0;</t>
+  </si>
+  <si>
+    <t>36162</t>
+  </si>
+  <si>
+    <t>Surat - Bhubaneswar Superfast Exp</t>
+  </si>
+  <si>
+    <t>AC2:40|40|2320.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|10|20|0:0:0;AC3:64|63|1740.0|XOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|20|50|0:0:0;SLEEPER:300|300|696.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|50|200|0:0:0;GENERAL:100|100|348.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|0|0|0:0:0;</t>
+  </si>
+  <si>
+    <t>46390</t>
+  </si>
+  <si>
+    <t>Mumbai Central - Howrah Garib Rath</t>
+  </si>
+  <si>
+    <t>AC3:400|398|944.0|XXOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|50|150|0:0:0;</t>
+  </si>
+  <si>
+    <t>28249</t>
+  </si>
+  <si>
+    <t>Ranchi - Indore Superfast Exp</t>
+  </si>
+  <si>
+    <t>21541</t>
+  </si>
+  <si>
+    <t>Mumbai Central - Allahabad Superfast Exp</t>
+  </si>
+  <si>
+    <t>AC2:40|40|2600.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|10|20|0:0:0;AC3:64|64|1950.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|20|50|0:0:0;SLEEPER:300|300|780.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|50|200|0:0:0;GENERAL:100|100|390.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|0|0|0:0:0;</t>
+  </si>
+  <si>
+    <t>91092</t>
+  </si>
+  <si>
+    <t>Patna - Ranchi Shatabdi Exp</t>
+  </si>
+  <si>
+    <t>CC:150|150|1248.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|20|50|0:0:0;EXEC:40|40|2600.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|5|10|0:0:0;</t>
+  </si>
+  <si>
+    <t>61175</t>
+  </si>
+  <si>
+    <t>Gorakhpur - Bangalore Superfast Exp</t>
+  </si>
+  <si>
+    <t>35719</t>
+  </si>
+  <si>
+    <t>Ahmedabad - Vadodara Superfast Exp</t>
+  </si>
+  <si>
+    <t>AC2:40|40|2360.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|10|20|0:0:0;AC3:64|64|1770.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|20|50|0:0:0;SLEEPER:300|300|708.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|50|200|0:0:0;GENERAL:100|100|354.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|0|0|0:0:0;</t>
+  </si>
+  <si>
+    <t>93152</t>
+  </si>
+  <si>
+    <t>Secunderabad - Goa (Madgaon) Superfast Exp</t>
+  </si>
+  <si>
+    <t>AC2:40|40|2680.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|10|20|0:0:0;AC3:64|64|2010.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|20|50|0:0:0;SLEEPER:300|300|804.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|50|200|0:0:0;GENERAL:100|100|402.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|0|0|0:0:0;</t>
+  </si>
+  <si>
+    <t>23627</t>
+  </si>
+  <si>
+    <t>Gorakhpur - Pune Superfast Exp</t>
+  </si>
+  <si>
+    <t>AC2:40|40|2200.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|10|20|0:0:0;AC3:64|64|1650.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|20|50|0:0:0;SLEEPER:300|300|660.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|50|200|0:0:0;GENERAL:100|100|330.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|0|0|0:0:0;</t>
+  </si>
+  <si>
+    <t>53930</t>
+  </si>
+  <si>
+    <t>Nagpur - Chennai Central Garib Rath</t>
+  </si>
+  <si>
+    <t>AC3:400|400|960.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|50|150|0:0:0;</t>
+  </si>
+  <si>
+    <t>99614</t>
+  </si>
+  <si>
+    <t>Gorakhpur - Jaipur Shatabdi Exp</t>
+  </si>
+  <si>
+    <t>CC:150|150|1344.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|20|50|0:0:0;EXEC:40|40|2800.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|5|10|0:0:0;</t>
+  </si>
+  <si>
+    <t>31583</t>
+  </si>
+  <si>
+    <t>Patna - Ahmedabad Superfast Exp</t>
+  </si>
+  <si>
+    <t>AC2:40|40|2240.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|10|20|0:0:0;AC3:64|64|1680.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|20|50|0:0:0;SLEEPER:300|300|672.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|50|200|0:0:0;GENERAL:100|100|336.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|0|0|0:0:0;</t>
+  </si>
+  <si>
+    <t>82579</t>
+  </si>
+  <si>
+    <t>Bhopal - Bangalore Superfast Exp</t>
+  </si>
+  <si>
+    <t>93556</t>
+  </si>
+  <si>
+    <t>Gorakhpur - Patna Passenger</t>
+  </si>
+  <si>
+    <t>GENERAL:200|200|312.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|0|0|0:0:0;</t>
+  </si>
+  <si>
+    <t>68406</t>
+  </si>
+  <si>
+    <t>Varanasi - Nagpur Superfast Exp</t>
+  </si>
+  <si>
+    <t>11057</t>
+  </si>
+  <si>
+    <t>Kanpur - Vadodara Superfast Exp</t>
+  </si>
+  <si>
+    <t>85405</t>
+  </si>
+  <si>
+    <t>Goa (Madgaon) - Amritsar Shatabdi Exp</t>
+  </si>
+  <si>
+    <t>CC:150|150|1488.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|20|50|0:0:0;EXEC:40|40|3100.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|5|10|0:0:0;</t>
+  </si>
+  <si>
+    <t>85216</t>
+  </si>
+  <si>
+    <t>Patna - Ranchi Garib Rath</t>
+  </si>
+  <si>
+    <t>AC3:400|399|800.0|XOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|50|150|0:0:0;</t>
+  </si>
+  <si>
+    <t>63638</t>
+  </si>
+  <si>
+    <t>Pune - Goa (Madgaon) Garib Rath</t>
+  </si>
+  <si>
+    <t>AC3:400|400|896.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|50|150|0:0:0;</t>
+  </si>
+  <si>
+    <t>35238</t>
+  </si>
+  <si>
+    <t>Howrah - Secunderabad Passenger</t>
+  </si>
+  <si>
+    <t>GENERAL:200|200|336.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|0|0|0:0:0;</t>
+  </si>
+  <si>
+    <t>99725</t>
+  </si>
+  <si>
+    <t>Lucknow - Bangalore Garib Rath</t>
+  </si>
+  <si>
+    <t>AC3:400|400|880.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|50|150|0:0:0;</t>
+  </si>
+  <si>
+    <t>38475</t>
+  </si>
+  <si>
+    <t>Amritsar - Jaipur Passenger</t>
+  </si>
+  <si>
+    <t>90775</t>
+  </si>
+  <si>
+    <t>Allahabad - Nagpur Garib Rath</t>
+  </si>
+  <si>
+    <t>AC3:400|400|864.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|50|150|0:0:0;</t>
+  </si>
+  <si>
+    <t>25599</t>
+  </si>
+  <si>
+    <t>Trivandrum - Pune Shatabdi Exp</t>
+  </si>
+  <si>
+    <t>CC:150|150|1320.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|20|50|0:0:0;EXEC:40|39|2750.0|XOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|5|10|0:0:0;</t>
+  </si>
+  <si>
+    <t>36836</t>
+  </si>
+  <si>
+    <t>Varanasi - Pune Passenger</t>
+  </si>
+  <si>
+    <t>GENERAL:200|199|300.0|XOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|0|0|0:0:0;</t>
+  </si>
+  <si>
+    <t>76463</t>
+  </si>
+  <si>
+    <t>Goa (Madgaon) - Patna Superfast Exp</t>
+  </si>
+  <si>
+    <t>AC2:40|40|2400.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|10|20|0:0:0;AC3:64|63|1800.0|XOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|20|50|0:0:0;SLEEPER:300|300|720.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|50|200|0:0:0;GENERAL:100|100|360.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|0|0|0:0:0;</t>
+  </si>
+  <si>
+    <t>78906</t>
+  </si>
+  <si>
+    <t>Vadodara - Coimbatore Superfast Exp</t>
+  </si>
+  <si>
+    <t>95722</t>
+  </si>
+  <si>
+    <t>Patna - Nagpur Garib Rath</t>
+  </si>
+  <si>
+    <t>AC3:400|400|800.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|50|150|0:0:0;</t>
+  </si>
+  <si>
+    <t>14627</t>
+  </si>
+  <si>
+    <t>Goa (Madgaon) - Amritsar Garib Rath</t>
+  </si>
+  <si>
+    <t>93797</t>
+  </si>
+  <si>
+    <t>Surat - Trivandrum Superfast Exp</t>
+  </si>
+  <si>
+    <t>91007</t>
+  </si>
+  <si>
+    <t>Guwahati - Secunderabad Superfast Exp</t>
   </si>
   <si>
     <t>AC2:40|40|2480.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|10|20|0:0:0;AC3:64|64|1860.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|20|50|0:0:0;SLEEPER:300|300|744.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|50|200|0:0:0;GENERAL:100|100|372.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|0|0|0:0:0;</t>
   </si>
   <si>
-    <t>77933</t>
-  </si>
-  <si>
-    <t>Mumbai Central - Guwahati Passenger</t>
-  </si>
-  <si>
-    <t>GENERAL:200|200|360.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|0|0|0:0:0;</t>
-  </si>
-  <si>
-    <t>25722</t>
-  </si>
-  <si>
-    <t>Vadodara - Gorakhpur Shatabdi Exp</t>
-  </si>
-  <si>
-    <t>78485</t>
-  </si>
-  <si>
-    <t>Dehradun - Bangalore Superfast Exp</t>
-  </si>
-  <si>
-    <t>AC2:40|40|2360.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|10|20|0:0:0;AC3:64|64|1770.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|20|50|0:0:0;SLEEPER:300|300|708.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|50|200|0:0:0;GENERAL:100|100|354.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|0|0|0:0:0;</t>
-  </si>
-  <si>
-    <t>24867</t>
-  </si>
-  <si>
-    <t>Amritsar - Kanpur Superfast Exp</t>
-  </si>
-  <si>
-    <t>AC2:40|40|2240.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|10|20|0:0:0;AC3:64|64|1680.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|20|50|0:0:0;SLEEPER:300|300|672.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|50|200|0:0:0;GENERAL:100|100|336.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|0|0|0:0:0;</t>
-  </si>
-  <si>
-    <t>48475</t>
-  </si>
-  <si>
-    <t>Patna - Pune Passenger</t>
-  </si>
-  <si>
-    <t>GENERAL:200|200|282.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|0|0|0:0:0;</t>
-  </si>
-  <si>
-    <t>75148</t>
-  </si>
-  <si>
-    <t>Dehradun - Chennai Central Shatabdi Exp</t>
+    <t>28205</t>
+  </si>
+  <si>
+    <t>Kanpur - Amritsar Shatabdi Exp</t>
+  </si>
+  <si>
+    <t>CC:150|150|1320.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|20|50|0:0:0;EXEC:40|40|2750.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|5|10|0:0:0;</t>
+  </si>
+  <si>
+    <t>68508</t>
+  </si>
+  <si>
+    <t>Amritsar - Bhopal Superfast Exp</t>
+  </si>
+  <si>
+    <t>60669</t>
+  </si>
+  <si>
+    <t>Indore - Ahmedabad Garib Rath</t>
+  </si>
+  <si>
+    <t>56874</t>
+  </si>
+  <si>
+    <t>Indore - Bhopal Superfast Exp</t>
+  </si>
+  <si>
+    <t>AC2:40|40|2160.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|10|20|0:0:0;AC3:64|64|1620.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|20|50|0:0:0;SLEEPER:300|299|648.0|XOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|50|200|0:0:0;GENERAL:100|100|324.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|0|0|0:0:0;</t>
+  </si>
+  <si>
+    <t>68084</t>
+  </si>
+  <si>
+    <t>Goa (Madgaon) - Dehradun Superfast Exp</t>
+  </si>
+  <si>
+    <t>AC2:40|40|2520.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|10|20|0:0:0;AC3:64|64|1890.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|20|50|0:0:0;SLEEPER:300|300|756.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|50|200|0:0:0;GENERAL:100|100|378.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|0|0|0:0:0;</t>
+  </si>
+  <si>
+    <t>38451</t>
+  </si>
+  <si>
+    <t>Lucknow - Gorakhpur Superfast Exp</t>
+  </si>
+  <si>
+    <t>AC2:40|40|2320.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|10|20|0:0:0;AC3:64|64|1740.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|20|50|0:0:0;SLEEPER:300|300|696.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|50|200|0:0:0;GENERAL:100|100|348.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|0|0|0:0:0;</t>
+  </si>
+  <si>
+    <t>73061</t>
+  </si>
+  <si>
+    <t>Gorakhpur - Patna Superfast Exp</t>
+  </si>
+  <si>
+    <t>AC2:40|39|2240.0|XOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|10|20|0:0:0;AC3:64|64|1680.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|20|50|0:0:0;SLEEPER:300|300|672.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|50|200|0:0:0;GENERAL:100|100|336.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|0|0|0:0:0;</t>
+  </si>
+  <si>
+    <t>96921</t>
+  </si>
+  <si>
+    <t>Indore - Varanasi Shatabdi Exp</t>
+  </si>
+  <si>
+    <t>CC:150|149|1320.0|XOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|20|50|0:0:0;EXEC:40|40|2750.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|5|10|0:0:0;</t>
+  </si>
+  <si>
+    <t>21239</t>
+  </si>
+  <si>
+    <t>Howrah - Bangalore Garib Rath</t>
+  </si>
+  <si>
+    <t>31512</t>
+  </si>
+  <si>
+    <t>Howrah - Kanpur Shatabdi Exp</t>
+  </si>
+  <si>
+    <t>CC:150|150|1272.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|20|50|0:0:0;EXEC:40|40|2650.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|5|10|0:0:0;</t>
+  </si>
+  <si>
+    <t>52365</t>
+  </si>
+  <si>
+    <t>Guwahati - Gorakhpur Superfast Exp</t>
+  </si>
+  <si>
+    <t>90330</t>
+  </si>
+  <si>
+    <t>Allahabad - Jammu Tawi Superfast Exp</t>
+  </si>
+  <si>
+    <t>AC2:40|40|2440.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|10|20|0:0:0;AC3:64|64|1830.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|20|50|0:0:0;SLEEPER:300|300|732.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|50|200|0:0:0;GENERAL:100|100|366.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|0|0|0:0:0;</t>
+  </si>
+  <si>
+    <t>61431</t>
+  </si>
+  <si>
+    <t>Vadodara - Dehradun Passenger</t>
+  </si>
+  <si>
+    <t>GENERAL:200|200|324.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|0|0|0:0:0;</t>
+  </si>
+  <si>
+    <t>65958</t>
+  </si>
+  <si>
+    <t>Coimbatore - New Delhi Superfast Exp</t>
+  </si>
+  <si>
+    <t>42265</t>
+  </si>
+  <si>
+    <t>Coimbatore - Chennai Central Garib Rath</t>
+  </si>
+  <si>
+    <t>AC3:400|399|1024.0|XOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|50|150|0:0:0;</t>
+  </si>
+  <si>
+    <t>43380</t>
+  </si>
+  <si>
+    <t>59111</t>
+  </si>
+  <si>
+    <t>Ranchi - Allahabad Shatabdi Exp</t>
+  </si>
+  <si>
+    <t>78190</t>
+  </si>
+  <si>
+    <t>Ahmedabad - Indore Superfast Exp</t>
+  </si>
+  <si>
+    <t>48089</t>
+  </si>
+  <si>
+    <t>Coimbatore - Nagpur Garib Rath</t>
+  </si>
+  <si>
+    <t>69594</t>
+  </si>
+  <si>
+    <t>Guwahati - Lucknow Passenger</t>
+  </si>
+  <si>
+    <t>GENERAL:200|199|318.0|XOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|0|0|0:0:0;</t>
+  </si>
+  <si>
+    <t>13810</t>
+  </si>
+  <si>
+    <t>Allahabad - Bhopal Shatabdi Exp</t>
+  </si>
+  <si>
+    <t>CC:150|150|1344.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|20|50|0:0:0;EXEC:40|39|2800.0|XOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|5|10|0:0:0;</t>
+  </si>
+  <si>
+    <t>48143</t>
+  </si>
+  <si>
+    <t>Howrah - Goa (Madgaon) Garib Rath</t>
+  </si>
+  <si>
+    <t>AC3:400|400|928.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|50|150|0:0:0;</t>
+  </si>
+  <si>
+    <t>63018</t>
+  </si>
+  <si>
+    <t>Kanpur - Mumbai Central Superfast Exp</t>
+  </si>
+  <si>
+    <t>AC2:40|40|2480.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|10|20|0:0:0;AC3:64|64|1860.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|20|50|0:0:0;SLEEPER:300|299|744.0|XOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|50|200|0:0:0;GENERAL:100|100|372.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|0|0|0:0:0;</t>
+  </si>
+  <si>
+    <t>64820</t>
+  </si>
+  <si>
+    <t>Pune - Lucknow Superfast Exp</t>
+  </si>
+  <si>
+    <t>AC2:40|40|2120.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|10|20|0:0:0;AC3:64|64|1590.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|20|50|0:0:0;SLEEPER:300|300|636.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|50|200|0:0:0;GENERAL:100|100|318.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|0|0|0:0:0;</t>
+  </si>
+  <si>
+    <t>49289</t>
+  </si>
+  <si>
+    <t>Jammu Tawi - Jaipur Superfast Exp</t>
+  </si>
+  <si>
+    <t>69318</t>
+  </si>
+  <si>
+    <t>Mumbai Central - Guwahati Garib Rath</t>
+  </si>
+  <si>
+    <t>AC3:400|400|976.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|50|150|0:0:0;</t>
+  </si>
+  <si>
+    <t>16158</t>
+  </si>
+  <si>
+    <t>Vadodara - Ranchi Superfast Exp</t>
+  </si>
+  <si>
+    <t>23961</t>
+  </si>
+  <si>
+    <t>Bhubaneswar - Allahabad Shatabdi Exp</t>
+  </si>
+  <si>
+    <t>CC:150|150|1464.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|20|50|0:0:0;EXEC:40|40|3050.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|5|10|0:0:0;</t>
+  </si>
+  <si>
+    <t>54583</t>
+  </si>
+  <si>
+    <t>Kanpur - Ranchi Shatabdi Exp</t>
+  </si>
+  <si>
+    <t>81434</t>
+  </si>
+  <si>
+    <t>Trivandrum - Ahmedabad Superfast Exp</t>
+  </si>
+  <si>
+    <t>AC2:40|40|2440.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|10|20|0:0:0;AC3:64|64|1830.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|20|50|0:0:0;SLEEPER:300|300|732.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|50|200|0:0:0;GENERAL:100|99|366.0|XOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|0|0|0:0:0;</t>
+  </si>
+  <si>
+    <t>46868</t>
+  </si>
+  <si>
+    <t>Coimbatore - Ahmedabad Superfast Exp</t>
+  </si>
+  <si>
+    <t>87922</t>
+  </si>
+  <si>
+    <t>Mumbai Central - Amritsar Superfast Exp</t>
+  </si>
+  <si>
+    <t>AC2:40|40|2560.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|10|20|0:0:0;AC3:64|64|1920.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|20|50|0:0:0;SLEEPER:300|300|768.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|50|200|0:0:0;GENERAL:100|100|384.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|0|0|0:0:0;</t>
+  </si>
+  <si>
+    <t>75444</t>
+  </si>
+  <si>
+    <t>Trivandrum - Goa (Madgaon) Garib Rath</t>
+  </si>
+  <si>
+    <t>AC3:400|400|992.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|50|150|0:0:0;</t>
+  </si>
+  <si>
+    <t>15176</t>
+  </si>
+  <si>
+    <t>Jammu Tawi - Amritsar Shatabdi Exp</t>
+  </si>
+  <si>
+    <t>CC:150|150|1416.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|20|50|0:0:0;EXEC:40|40|2950.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|5|10|0:0:0;</t>
+  </si>
+  <si>
+    <t>10639</t>
+  </si>
+  <si>
+    <t>Ranchi - Allahabad Passenger</t>
+  </si>
+  <si>
+    <t>GENERAL:200|200|318.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|0|0|0:0:0;</t>
+  </si>
+  <si>
+    <t>44644</t>
+  </si>
+  <si>
+    <t>Lucknow - Pune Shatabdi Exp</t>
+  </si>
+  <si>
+    <t>CC:150|150|1248.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|20|50|0:0:0;EXEC:40|39|2600.0|XOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|5|10|0:0:0;</t>
+  </si>
+  <si>
+    <t>80158</t>
+  </si>
+  <si>
+    <t>Bhubaneswar - Mumbai Central Superfast Exp</t>
+  </si>
+  <si>
+    <t>56819</t>
+  </si>
+  <si>
+    <t>Secunderabad - Gorakhpur Superfast Exp</t>
+  </si>
+  <si>
+    <t>12525</t>
+  </si>
+  <si>
+    <t>Surat - Mumbai Central Superfast Exp</t>
+  </si>
+  <si>
+    <t>78724</t>
+  </si>
+  <si>
+    <t>Secunderabad - New Delhi Superfast Exp</t>
+  </si>
+  <si>
+    <t>AC2:40|40|2520.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|10|20|0:0:0;AC3:64|64|1890.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|20|50|0:0:0;SLEEPER:300|299|756.0|XOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|50|200|0:0:0;GENERAL:100|100|378.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|0|0|0:0:0;</t>
+  </si>
+  <si>
+    <t>68839</t>
+  </si>
+  <si>
+    <t>Guwahati - Allahabad Superfast Exp</t>
+  </si>
+  <si>
+    <t>65404</t>
+  </si>
+  <si>
+    <t>Vadodara - Dehradun Garib Rath</t>
+  </si>
+  <si>
+    <t>AC3:400|399|880.0|XOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|50|150|0:0:0;</t>
+  </si>
+  <si>
+    <t>80845</t>
+  </si>
+  <si>
+    <t>Howrah - Lucknow Shatabdi Exp</t>
+  </si>
+  <si>
+    <t>CC:150|150|1296.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|20|50|0:0:0;EXEC:40|39|2700.0|XOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|5|10|0:0:0;</t>
+  </si>
+  <si>
+    <t>53359</t>
+  </si>
+  <si>
+    <t>Chennai Central - Jammu Tawi Shatabdi Exp</t>
+  </si>
+  <si>
+    <t>CC:150|150|1584.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|20|50|0:0:0;EXEC:40|40|3300.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|5|10|0:0:0;</t>
+  </si>
+  <si>
+    <t>76345</t>
+  </si>
+  <si>
+    <t>Indore - Goa (Madgaon) Superfast Exp</t>
+  </si>
+  <si>
+    <t>90877</t>
+  </si>
+  <si>
+    <t>83125</t>
+  </si>
+  <si>
+    <t>Bhopal - Allahabad Superfast Exp</t>
+  </si>
+  <si>
+    <t>13996</t>
+  </si>
+  <si>
+    <t>Gorakhpur - Goa (Madgaon) Superfast Exp</t>
+  </si>
+  <si>
+    <t>84384</t>
+  </si>
+  <si>
+    <t>Patna - Allahabad Superfast Exp</t>
+  </si>
+  <si>
+    <t>57290</t>
+  </si>
+  <si>
+    <t>Trivandrum - Dehradun Superfast Exp</t>
+  </si>
+  <si>
+    <t>AC2:40|40|2400.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|10|20|0:0:0;AC3:64|64|1800.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|20|50|0:0:0;SLEEPER:300|300|720.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|50|200|0:0:0;GENERAL:100|99|360.0|XOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|0|0|0:0:0;</t>
+  </si>
+  <si>
+    <t>52441</t>
+  </si>
+  <si>
+    <t>Goa (Madgaon) - Patna Garib Rath</t>
+  </si>
+  <si>
+    <t>AC3:400|400|912.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|50|150|0:0:0;</t>
+  </si>
+  <si>
+    <t>88242</t>
+  </si>
+  <si>
+    <t>Ranchi - New Delhi Garib Rath</t>
+  </si>
+  <si>
+    <t>96421</t>
+  </si>
+  <si>
+    <t>Jammu Tawi - Mumbai Central Garib Rath</t>
+  </si>
+  <si>
+    <t>AC3:400|399|1008.0|XOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|50|150|0:0:0;</t>
+  </si>
+  <si>
+    <t>36333</t>
+  </si>
+  <si>
+    <t>Chennai Central - Kanpur Superfast Exp</t>
+  </si>
+  <si>
+    <t>87127</t>
+  </si>
+  <si>
+    <t>Secunderabad - Allahabad Superfast Exp</t>
+  </si>
+  <si>
+    <t>60592</t>
+  </si>
+  <si>
+    <t>Mumbai Central - Trivandrum Garib Rath</t>
+  </si>
+  <si>
+    <t>AC3:400|400|1008.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|50|150|0:0:0;</t>
+  </si>
+  <si>
+    <t>40146</t>
+  </si>
+  <si>
+    <t>Guwahati - Lucknow Superfast Exp</t>
+  </si>
+  <si>
+    <t>99691</t>
+  </si>
+  <si>
+    <t>Bhubaneswar - Vadodara Superfast Exp</t>
+  </si>
+  <si>
+    <t>46963</t>
+  </si>
+  <si>
+    <t>Ranchi - Gorakhpur Superfast Exp</t>
+  </si>
+  <si>
+    <t>67176</t>
+  </si>
+  <si>
+    <t>Indore - Goa (Madgaon) Shatabdi Exp</t>
+  </si>
+  <si>
+    <t>CC:150|150|1440.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|20|50|0:0:0;EXEC:40|40|3000.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|5|10|0:0:0;</t>
+  </si>
+  <si>
+    <t>96197</t>
+  </si>
+  <si>
+    <t>Ranchi - New Delhi Shatabdi Exp</t>
+  </si>
+  <si>
+    <t>50239</t>
+  </si>
+  <si>
+    <t>Ranchi - Gorakhpur Garib Rath</t>
+  </si>
+  <si>
+    <t>14950</t>
+  </si>
+  <si>
+    <t>Allahabad - Mumbai Central Superfast Exp</t>
+  </si>
+  <si>
+    <t>24681</t>
+  </si>
+  <si>
+    <t>Goa (Madgaon) - Nagpur Garib Rath</t>
+  </si>
+  <si>
+    <t>94399</t>
+  </si>
+  <si>
+    <t>Chennai Central - Varanasi Shatabdi Exp</t>
+  </si>
+  <si>
+    <t>CC:150|150|1536.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|20|50|0:0:0;EXEC:40|39|3200.0|XOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|5|10|0:0:0;</t>
+  </si>
+  <si>
+    <t>72397</t>
+  </si>
+  <si>
+    <t>Bhopal - Goa (Madgaon) Superfast Exp</t>
+  </si>
+  <si>
+    <t>95039</t>
+  </si>
+  <si>
+    <t>Lucknow - Secunderabad Passenger</t>
+  </si>
+  <si>
+    <t>GENERAL:200|199|342.0|XOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|0|0|0:0:0;</t>
+  </si>
+  <si>
+    <t>46857</t>
+  </si>
+  <si>
+    <t>Guwahati - Bhubaneswar Garib Rath</t>
+  </si>
+  <si>
+    <t>21676</t>
+  </si>
+  <si>
+    <t>Bangalore - Trivandrum Shatabdi Exp</t>
+  </si>
+  <si>
+    <t>CC:150|149|1440.0|XOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|20|50|0:0:0;EXEC:40|40|3000.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|5|10|0:0:0;</t>
+  </si>
+  <si>
+    <t>64118</t>
+  </si>
+  <si>
+    <t>Guwahati - Bangalore Passenger</t>
+  </si>
+  <si>
+    <t>GENERAL:200|200|330.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|0|0|0:0:0;</t>
+  </si>
+  <si>
+    <t>97463</t>
+  </si>
+  <si>
+    <t>Pune - Bhopal Shatabdi Exp</t>
+  </si>
+  <si>
+    <t>CC:150|148|1224.0|XXOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|20|50|0:0:0;EXEC:40|40|2550.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|5|10|0:0:0;</t>
+  </si>
+  <si>
+    <t>91136</t>
+  </si>
+  <si>
+    <t>Coimbatore - Indore Passenger</t>
+  </si>
+  <si>
+    <t>92599</t>
+  </si>
+  <si>
+    <t>Secunderabad - Guwahati Superfast Exp</t>
+  </si>
+  <si>
+    <t>50340</t>
+  </si>
+  <si>
+    <t>32049</t>
+  </si>
+  <si>
+    <t>Amritsar - Jammu Tawi Garib Rath</t>
+  </si>
+  <si>
+    <t>74395</t>
+  </si>
+  <si>
+    <t>Patna - Surat Shatabdi Exp</t>
+  </si>
+  <si>
+    <t>CC:150|150|1224.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|20|50|0:0:0;EXEC:40|40|2550.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|5|10|0:0:0;</t>
+  </si>
+  <si>
+    <t>50319</t>
+  </si>
+  <si>
+    <t>Secunderabad - Guwahati Shatabdi Exp</t>
+  </si>
+  <si>
+    <t>56678</t>
+  </si>
+  <si>
+    <t>New Delhi - Ranchi Superfast Exp</t>
+  </si>
+  <si>
+    <t>87232</t>
+  </si>
+  <si>
+    <t>Indore - Guwahati Passenger</t>
+  </si>
+  <si>
+    <t>30461</t>
+  </si>
+  <si>
+    <t>Amritsar - Pune Superfast Exp</t>
+  </si>
+  <si>
+    <t>AC2:40|40|2160.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|10|20|0:0:0;AC3:64|63|1620.0|XOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|20|50|0:0:0;SLEEPER:300|300|648.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|50|200|0:0:0;GENERAL:100|99|324.0|XOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|0|0|0:0:0;</t>
+  </si>
+  <si>
+    <t>66244</t>
+  </si>
+  <si>
+    <t>Vadodara - Varanasi Garib Rath</t>
+  </si>
+  <si>
+    <t>85223</t>
+  </si>
+  <si>
+    <t>Lucknow - Vadodara Superfast Exp</t>
+  </si>
+  <si>
+    <t>93983</t>
+  </si>
+  <si>
+    <t>25168</t>
+  </si>
+  <si>
+    <t>Guwahati - Goa (Madgaon) Garib Rath</t>
+  </si>
+  <si>
+    <t>32056</t>
+  </si>
+  <si>
+    <t>Coimbatore - Ranchi Superfast Exp</t>
+  </si>
+  <si>
+    <t>AC2:40|39|2320.0|XOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|10|20|0:0:0;AC3:64|64|1740.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|20|50|0:0:0;SLEEPER:300|300|696.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|50|200|0:0:0;GENERAL:100|100|348.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|0|0|0:0:0;</t>
+  </si>
+  <si>
+    <t>45394</t>
+  </si>
+  <si>
+    <t>Pune - Howrah Garib Rath</t>
+  </si>
+  <si>
+    <t>AC3:400|400|784.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|50|150|0:0:0;</t>
+  </si>
+  <si>
+    <t>96793</t>
+  </si>
+  <si>
+    <t>Bhopal - Indore Superfast Exp</t>
+  </si>
+  <si>
+    <t>88265</t>
+  </si>
+  <si>
+    <t>Lucknow - Mumbai Central Garib Rath</t>
+  </si>
+  <si>
+    <t>20459</t>
+  </si>
+  <si>
+    <t>Coimbatore - Jaipur Superfast Exp</t>
+  </si>
+  <si>
+    <t>AC2:40|40|2320.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|10|20|0:0:0;AC3:64|63|1740.0|XOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|20|50|0:0:0;SLEEPER:300|300|696.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|50|200|0:0:0;GENERAL:100|99|348.0|XOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|0|0|0:0:0;</t>
+  </si>
+  <si>
+    <t>90914</t>
+  </si>
+  <si>
+    <t>Jammu Tawi - Patna Superfast Exp</t>
+  </si>
+  <si>
+    <t>AC2:40|40|2280.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|10|20|0:0:0;AC3:64|64|1710.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|20|50|0:0:0;SLEEPER:300|300|684.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|50|200|0:0:0;GENERAL:100|99|342.0|XOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|0|0|0:0:0;</t>
+  </si>
+  <si>
+    <t>47725</t>
+  </si>
+  <si>
+    <t>Coimbatore - Jammu Tawi Superfast Exp</t>
+  </si>
+  <si>
+    <t>31865</t>
+  </si>
+  <si>
+    <t>Coimbatore - Bangalore Superfast Exp</t>
+  </si>
+  <si>
+    <t>AC2:40|40|2440.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|10|20|0:0:0;AC3:64|63|1830.0|XOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|20|50|0:0:0;SLEEPER:300|300|732.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|50|200|0:0:0;GENERAL:100|100|366.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|0|0|0:0:0;</t>
+  </si>
+  <si>
+    <t>48784</t>
+  </si>
+  <si>
+    <t>Goa (Madgaon) - Indore Superfast Exp</t>
+  </si>
+  <si>
+    <t>32791</t>
+  </si>
+  <si>
+    <t>Mumbai Central - Jaipur Superfast Exp</t>
+  </si>
+  <si>
+    <t>19471</t>
+  </si>
+  <si>
+    <t>Mumbai Central - Allahabad Shatabdi Exp</t>
   </si>
   <si>
     <t>CC:150|150|1536.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|20|50|0:0:0;EXEC:40|40|3200.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|5|10|0:0:0;</t>
   </si>
   <si>
-    <t>41169</t>
-  </si>
-  <si>
-    <t>Varanasi - Dehradun Superfast Exp</t>
-  </si>
-  <si>
-    <t>AC2:40|40|2320.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|10|20|0:0:0;AC3:64|64|1740.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|20|50|0:0:0;SLEEPER:300|300|696.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|50|200|0:0:0;GENERAL:100|100|348.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|0|0|0:0:0;</t>
-  </si>
-  <si>
-    <t>62546</t>
-  </si>
-  <si>
-    <t>Gorakhpur - Jaipur Superfast Exp</t>
-  </si>
-  <si>
-    <t>AC2:40|40|2280.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|10|20|0:0:0;AC3:64|64|1710.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|20|50|0:0:0;SLEEPER:300|300|684.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|50|200|0:0:0;GENERAL:100|100|342.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|0|0|0:0:0;</t>
-  </si>
-  <si>
-    <t>57020</t>
-  </si>
-  <si>
-    <t>Surat - Vadodara Shatabdi Exp</t>
-  </si>
-  <si>
-    <t>CC:150|150|1296.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|20|50|0:0:0;EXEC:40|40|2700.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|5|10|0:0:0;</t>
-  </si>
-  <si>
-    <t>56477</t>
-  </si>
-  <si>
-    <t>Trivandrum - Gorakhpur Superfast Exp</t>
-  </si>
-  <si>
-    <t>AC2:40|40|2440.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|10|20|0:0:0;AC3:64|64|1830.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|20|50|0:0:0;SLEEPER:300|300|732.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|50|200|0:0:0;GENERAL:100|100|366.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|0|0|0:0:0;</t>
-  </si>
-  <si>
-    <t>25405</t>
-  </si>
-  <si>
-    <t>Vadodara - Howrah Superfast Exp</t>
-  </si>
-  <si>
-    <t>65894</t>
-  </si>
-  <si>
-    <t>Bhubaneswar - Varanasi Superfast Exp</t>
-  </si>
-  <si>
-    <t>10569</t>
-  </si>
-  <si>
-    <t>Secunderabad - New Delhi Superfast Exp</t>
-  </si>
-  <si>
-    <t>AC2:40|40|2520.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|10|20|0:0:0;AC3:64|64|1890.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|20|50|0:0:0;SLEEPER:300|300|756.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|50|200|0:0:0;GENERAL:100|100|378.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|0|0|0:0:0;</t>
-  </si>
-  <si>
-    <t>52888</t>
-  </si>
-  <si>
-    <t>Amritsar - Mumbai Central Garib Rath</t>
-  </si>
-  <si>
-    <t>AC3:400|400|976.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|50|150|0:0:0;</t>
-  </si>
-  <si>
-    <t>72679</t>
-  </si>
-  <si>
-    <t>Bangalore - Jaipur Garib Rath</t>
-  </si>
-  <si>
-    <t>AC3:400|400|864.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|50|150|0:0:0;</t>
-  </si>
-  <si>
-    <t>99445</t>
-  </si>
-  <si>
-    <t>Coimbatore - New Delhi Superfast Exp</t>
-  </si>
-  <si>
-    <t>Coimbatore</t>
-  </si>
-  <si>
-    <t>60161</t>
-  </si>
-  <si>
-    <t>Allahabad - Varanasi Passenger</t>
-  </si>
-  <si>
-    <t>GENERAL:200|200|330.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|0|0|0:0:0;</t>
-  </si>
-  <si>
-    <t>54031</t>
-  </si>
-  <si>
-    <t>Ranchi - Howrah Shatabdi Exp</t>
-  </si>
-  <si>
-    <t>CC:150|150|1272.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|20|50|0:0:0;EXEC:40|40|2650.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|5|10|0:0:0;</t>
-  </si>
-  <si>
-    <t>19232</t>
-  </si>
-  <si>
-    <t>Patna - Goa (Madgaon) Superfast Exp</t>
-  </si>
-  <si>
-    <t>AC2:40|40|2400.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|10|20|0:0:0;AC3:64|64|1800.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|20|50|0:0:0;SLEEPER:300|300|720.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|50|200|0:0:0;GENERAL:100|100|360.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|0|0|0:0:0;</t>
-  </si>
-  <si>
-    <t>74789</t>
-  </si>
-  <si>
-    <t>Goa (Madgaon) - Surat Passenger</t>
-  </si>
-  <si>
-    <t>GENERAL:200|200|336.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|0|0|0:0:0;</t>
-  </si>
-  <si>
-    <t>24879</t>
-  </si>
-  <si>
-    <t>Allahabad - Jaipur Superfast Exp</t>
-  </si>
-  <si>
-    <t>24306</t>
-  </si>
-  <si>
-    <t>Ranchi - Mumbai Central Superfast Exp</t>
-  </si>
-  <si>
-    <t>41243</t>
-  </si>
-  <si>
-    <t>New Delhi - Gorakhpur Garib Rath</t>
-  </si>
-  <si>
-    <t>AC3:400|400|912.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|50|150|0:0:0;</t>
-  </si>
-  <si>
-    <t>94910</t>
-  </si>
-  <si>
-    <t>Chennai Central - Gorakhpur Shatabdi Exp</t>
-  </si>
-  <si>
-    <t>CC:150|150|1560.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|20|50|0:0:0;EXEC:40|40|3250.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|5|10|0:0:0;</t>
-  </si>
-  <si>
-    <t>84159</t>
-  </si>
-  <si>
-    <t>Dehradun - Chennai Central Superfast Exp</t>
-  </si>
-  <si>
-    <t>AC2:40|40|2600.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|10|20|0:0:0;AC3:64|64|1950.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|20|50|0:0:0;SLEEPER:300|300|780.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|50|200|0:0:0;GENERAL:100|100|390.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|0|0|0:0:0;</t>
-  </si>
-  <si>
-    <t>94241</t>
-  </si>
-  <si>
-    <t>Lucknow - Mumbai Central Superfast Exp</t>
-  </si>
-  <si>
-    <t>63561</t>
-  </si>
-  <si>
-    <t>Secunderabad - Bhopal Garib Rath</t>
-  </si>
-  <si>
-    <t>55897</t>
-  </si>
-  <si>
-    <t>Guwahati - Bhubaneswar Superfast Exp</t>
-  </si>
-  <si>
-    <t>44967</t>
-  </si>
-  <si>
-    <t>Ahmedabad - Indore Garib Rath</t>
-  </si>
-  <si>
-    <t>59616</t>
-  </si>
-  <si>
-    <t>Secunderabad - Varanasi Garib Rath</t>
-  </si>
-  <si>
-    <t>AC3:400|400|944.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|50|150|0:0:0;</t>
-  </si>
-  <si>
-    <t>46919</t>
-  </si>
-  <si>
-    <t>Bhubaneswar - Indore Superfast Exp</t>
-  </si>
-  <si>
-    <t>83804</t>
-  </si>
-  <si>
-    <t>Nagpur - Chennai Central Garib Rath</t>
-  </si>
-  <si>
-    <t>AC3:400|400|960.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|50|150|0:0:0;</t>
-  </si>
-  <si>
-    <t>21524</t>
-  </si>
-  <si>
-    <t>Chennai Central - Indore Passenger</t>
-  </si>
-  <si>
-    <t>GENERAL:200|200|354.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|0|0|0:0:0;</t>
-  </si>
-  <si>
-    <t>68008</t>
-  </si>
-  <si>
-    <t>Amritsar - Trivandrum Shatabdi Exp</t>
-  </si>
-  <si>
-    <t>CC:150|150|1416.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|20|50|0:0:0;EXEC:40|40|2950.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|5|10|0:0:0;</t>
-  </si>
-  <si>
-    <t>49462</t>
-  </si>
-  <si>
-    <t>Kanpur - Varanasi Garib Rath</t>
-  </si>
-  <si>
-    <t>AC3:400|400|848.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|50|150|0:0:0;</t>
-  </si>
-  <si>
-    <t>91637</t>
-  </si>
-  <si>
-    <t>Ranchi - Patna Superfast Exp</t>
-  </si>
-  <si>
-    <t>AC2:40|40|2120.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|10|20|0:0:0;AC3:64|64|1590.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|20|50|0:0:0;SLEEPER:300|300|636.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|50|200|0:0:0;GENERAL:100|100|318.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|0|0|0:0:0;</t>
-  </si>
-  <si>
-    <t>48884</t>
-  </si>
-  <si>
-    <t>Bhubaneswar - Mumbai Central Shatabdi Exp</t>
-  </si>
-  <si>
-    <t>CC:150|150|1584.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|20|50|0:0:0;EXEC:40|40|3300.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|5|10|0:0:0;</t>
-  </si>
-  <si>
-    <t>92511</t>
-  </si>
-  <si>
-    <t>24368</t>
-  </si>
-  <si>
-    <t>Chennai Central - Jammu Tawi Shatabdi Exp</t>
-  </si>
-  <si>
-    <t>69075</t>
-  </si>
-  <si>
-    <t>Chennai Central - Amritsar Superfast Exp</t>
-  </si>
-  <si>
-    <t>43317</t>
-  </si>
-  <si>
-    <t>New Delhi - Bhubaneswar Superfast Exp</t>
-  </si>
-  <si>
-    <t>48671</t>
-  </si>
-  <si>
-    <t>Kanpur - Allahabad Superfast Exp</t>
-  </si>
-  <si>
-    <t>39087</t>
-  </si>
-  <si>
-    <t>Ahmedabad - New Delhi Garib Rath</t>
-  </si>
-  <si>
-    <t>51884</t>
-  </si>
-  <si>
-    <t>Allahabad - Lucknow Superfast Exp</t>
-  </si>
-  <si>
-    <t>24606</t>
-  </si>
-  <si>
-    <t>Coimbatore - Goa (Madgaon) Superfast Exp</t>
-  </si>
-  <si>
-    <t>86004</t>
-  </si>
-  <si>
-    <t>Trivandrum - Jammu Tawi Superfast Exp</t>
-  </si>
-  <si>
-    <t>28921</t>
-  </si>
-  <si>
-    <t>Howrah - Chennai Central Superfast Exp</t>
-  </si>
-  <si>
-    <t>45374</t>
-  </si>
-  <si>
-    <t>Jammu Tawi - Pune Superfast Exp</t>
-  </si>
-  <si>
-    <t>72360</t>
-  </si>
-  <si>
-    <t>Lucknow - Secunderabad Superfast Exp</t>
-  </si>
-  <si>
-    <t>24283</t>
-  </si>
-  <si>
-    <t>Ahmedabad - Trivandrum Superfast Exp</t>
-  </si>
-  <si>
-    <t>98057</t>
-  </si>
-  <si>
-    <t>Howrah - Varanasi Passenger</t>
-  </si>
-  <si>
-    <t>GENERAL:200|200|312.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|0|0|0:0:0;</t>
-  </si>
-  <si>
-    <t>63263</t>
-  </si>
-  <si>
-    <t>Ranchi - Ahmedabad Superfast Exp</t>
-  </si>
-  <si>
-    <t>77479</t>
-  </si>
-  <si>
-    <t>Trivandrum - Allahabad Superfast Exp</t>
-  </si>
-  <si>
-    <t>78596</t>
-  </si>
-  <si>
-    <t>Secunderabad - Jaipur Shatabdi Exp</t>
-  </si>
-  <si>
-    <t>21899</t>
-  </si>
-  <si>
-    <t>Bangalore - Kanpur Shatabdi Exp</t>
-  </si>
-  <si>
-    <t>CC:150|150|1344.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|20|50|0:0:0;EXEC:40|40|2800.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|5|10|0:0:0;</t>
-  </si>
-  <si>
-    <t>74075</t>
-  </si>
-  <si>
-    <t>Howrah - Varanasi Shatabdi Exp</t>
-  </si>
-  <si>
-    <t>CC:150|150|1320.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|20|50|0:0:0;EXEC:40|40|2750.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|5|10|0:0:0;</t>
-  </si>
-  <si>
-    <t>57291</t>
-  </si>
-  <si>
-    <t>Dehradun - Pune Shatabdi Exp</t>
-  </si>
-  <si>
-    <t>52097</t>
-  </si>
-  <si>
-    <t>Dehradun - Secunderabad Superfast Exp</t>
-  </si>
-  <si>
-    <t>83668</t>
-  </si>
-  <si>
-    <t>Pune - Varanasi Superfast Exp</t>
-  </si>
-  <si>
-    <t>10169</t>
-  </si>
-  <si>
-    <t>Patna - Ahmedabad Superfast Exp</t>
-  </si>
-  <si>
-    <t>28335</t>
-  </si>
-  <si>
-    <t>Amritsar - Nagpur Garib Rath</t>
-  </si>
-  <si>
-    <t>26036</t>
-  </si>
-  <si>
-    <t>Surat - Amritsar Garib Rath</t>
-  </si>
-  <si>
-    <t>68808</t>
-  </si>
-  <si>
-    <t>Jaipur - Chennai Central Shatabdi Exp</t>
-  </si>
-  <si>
-    <t>CC:150|150|1488.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|20|50|0:0:0;EXEC:40|40|3100.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|5|10|0:0:0;</t>
-  </si>
-  <si>
-    <t>44204</t>
-  </si>
-  <si>
-    <t>38834</t>
-  </si>
-  <si>
-    <t>Patna - Guwahati Shatabdi Exp</t>
-  </si>
-  <si>
-    <t>27818</t>
-  </si>
-  <si>
-    <t>Bhopal - Chennai Central Garib Rath</t>
-  </si>
-  <si>
-    <t>88757</t>
-  </si>
-  <si>
-    <t>Dehradun - Howrah Shatabdi Exp</t>
-  </si>
-  <si>
-    <t>42489</t>
-  </si>
-  <si>
-    <t>Guwahati - Jammu Tawi Shatabdi Exp</t>
-  </si>
-  <si>
-    <t>29357</t>
-  </si>
-  <si>
-    <t>Goa (Madgaon) - Howrah Superfast Exp</t>
-  </si>
-  <si>
-    <t>94292</t>
-  </si>
-  <si>
-    <t>Lucknow - Gorakhpur Superfast Exp</t>
-  </si>
-  <si>
-    <t>17003</t>
-  </si>
-  <si>
-    <t>Vadodara - Chennai Central Garib Rath</t>
-  </si>
-  <si>
-    <t>AC3:400|400|992.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|50|150|0:0:0;</t>
-  </si>
-  <si>
-    <t>85600</t>
-  </si>
-  <si>
-    <t>Pune - Trivandrum Superfast Exp</t>
-  </si>
-  <si>
-    <t>96650</t>
-  </si>
-  <si>
-    <t>Jaipur - Amritsar Shatabdi Exp</t>
-  </si>
-  <si>
-    <t>91249</t>
-  </si>
-  <si>
-    <t>Guwahati - Jammu Tawi Superfast Exp</t>
-  </si>
-  <si>
-    <t>39827</t>
-  </si>
-  <si>
-    <t>Surat - Goa (Madgaon) Passenger</t>
-  </si>
-  <si>
-    <t>80392</t>
-  </si>
-  <si>
-    <t>Bangalore - Kanpur Passenger</t>
-  </si>
-  <si>
-    <t>GENERAL:200|200|318.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|0|0|0:0:0;</t>
-  </si>
-  <si>
-    <t>63709</t>
-  </si>
-  <si>
-    <t>Patna - Bhopal Garib Rath</t>
-  </si>
-  <si>
-    <t>AC3:400|400|800.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|50|150|0:0:0;</t>
-  </si>
-  <si>
-    <t>36569</t>
-  </si>
-  <si>
-    <t>Kanpur - Gorakhpur Superfast Exp</t>
-  </si>
-  <si>
-    <t>54215</t>
-  </si>
-  <si>
-    <t>Goa (Madgaon) - Ranchi Shatabdi Exp</t>
-  </si>
-  <si>
-    <t>CC:150|150|1440.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|20|50|0:0:0;EXEC:40|40|3000.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|5|10|0:0:0;</t>
-  </si>
-  <si>
-    <t>23334</t>
-  </si>
-  <si>
-    <t>Jammu Tawi - Coimbatore Superfast Exp</t>
-  </si>
-  <si>
-    <t>42997</t>
-  </si>
-  <si>
-    <t>New Delhi - Kanpur Superfast Exp</t>
-  </si>
-  <si>
-    <t>21728</t>
-  </si>
-  <si>
-    <t>Secunderabad - Vadodara Shatabdi Exp</t>
-  </si>
-  <si>
-    <t>CC:150|150|1464.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|20|50|0:0:0;EXEC:40|40|3050.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|5|10|0:0:0;</t>
-  </si>
-  <si>
-    <t>33397</t>
-  </si>
-  <si>
-    <t>Allahabad - New Delhi Garib Rath</t>
-  </si>
-  <si>
-    <t>64571</t>
-  </si>
-  <si>
-    <t>Vadodara - Bhopal Shatabdi Exp</t>
-  </si>
-  <si>
-    <t>24050</t>
-  </si>
-  <si>
-    <t>Secunderabad - Guwahati Superfast Exp</t>
-  </si>
-  <si>
-    <t>26016</t>
-  </si>
-  <si>
-    <t>Lucknow - Secunderabad Shatabdi Exp</t>
-  </si>
-  <si>
-    <t>91467</t>
-  </si>
-  <si>
-    <t>Amritsar - Pune Shatabdi Exp</t>
-  </si>
-  <si>
-    <t>89411</t>
-  </si>
-  <si>
-    <t>Kanpur - Jammu Tawi Shatabdi Exp</t>
+    <t>62099</t>
+  </si>
+  <si>
+    <t>Dehradun - Goa (Madgaon) Superfast Exp</t>
+  </si>
+  <si>
+    <t>22133</t>
+  </si>
+  <si>
+    <t>Surat - Bhubaneswar Shatabdi Exp</t>
   </si>
   <si>
     <t>CC:150|150|1368.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|20|50|0:0:0;EXEC:40|40|2850.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|5|10|0:0:0;</t>
   </si>
   <si>
-    <t>69383</t>
-  </si>
-  <si>
-    <t>Patna - Allahabad Superfast Exp</t>
-  </si>
-  <si>
-    <t>85314</t>
-  </si>
-  <si>
-    <t>21037</t>
-  </si>
-  <si>
-    <t>Bhubaneswar - Amritsar Passenger</t>
-  </si>
-  <si>
-    <t>GENERAL:200|200|342.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|0|0|0:0:0;</t>
-  </si>
-  <si>
-    <t>36056</t>
-  </si>
-  <si>
-    <t>Bangalore - Lucknow Shatabdi Exp</t>
-  </si>
-  <si>
-    <t>27413</t>
-  </si>
-  <si>
-    <t>Secunderabad - Patna Shatabdi Exp</t>
-  </si>
-  <si>
-    <t>13134</t>
-  </si>
-  <si>
-    <t>Goa (Madgaon) - Surat Superfast Exp</t>
-  </si>
-  <si>
-    <t>99202</t>
-  </si>
-  <si>
-    <t>Amritsar - Mumbai Central Shatabdi Exp</t>
-  </si>
-  <si>
-    <t>CC:150|150|1512.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|20|50|0:0:0;EXEC:40|40|3150.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|5|10|0:0:0;</t>
-  </si>
-  <si>
-    <t>94247</t>
-  </si>
-  <si>
-    <t>Amritsar - Howrah Superfast Exp</t>
-  </si>
-  <si>
-    <t>73615</t>
-  </si>
-  <si>
-    <t>Secunderabad - Pune Shatabdi Exp</t>
-  </si>
-  <si>
-    <t>43812</t>
-  </si>
-  <si>
-    <t>Gorakhpur - Guwahati Shatabdi Exp</t>
-  </si>
-  <si>
-    <t>67392</t>
-  </si>
-  <si>
-    <t>46613</t>
-  </si>
-  <si>
-    <t>Indore - Ranchi Superfast Exp</t>
-  </si>
-  <si>
-    <t>53812</t>
-  </si>
-  <si>
-    <t>47455</t>
-  </si>
-  <si>
-    <t>Varanasi - Jaipur Shatabdi Exp</t>
-  </si>
-  <si>
-    <t>32765</t>
-  </si>
-  <si>
-    <t>38086</t>
-  </si>
-  <si>
-    <t>Jammu Tawi - Kanpur Passenger</t>
-  </si>
-  <si>
-    <t>GENERAL:200|200|324.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|0|0|0:0:0;</t>
-  </si>
-  <si>
-    <t>59737</t>
-  </si>
-  <si>
-    <t>Trivandrum - Dehradun Superfast Exp</t>
-  </si>
-  <si>
-    <t>13878</t>
-  </si>
-  <si>
-    <t>Howrah - Goa (Madgaon) Shatabdi Exp</t>
-  </si>
-  <si>
-    <t>75461</t>
-  </si>
-  <si>
-    <t>Goa (Madgaon) - Allahabad Garib Rath</t>
-  </si>
-  <si>
-    <t>70573</t>
-  </si>
-  <si>
-    <t>Pune - Bangalore Garib Rath</t>
-  </si>
-  <si>
-    <t>11007</t>
-  </si>
-  <si>
-    <t>Patna - Coimbatore Superfast Exp</t>
-  </si>
-  <si>
-    <t>36484</t>
-  </si>
-  <si>
-    <t>Howrah - Goa (Madgaon) Superfast Exp</t>
-  </si>
-  <si>
-    <t>28763</t>
-  </si>
-  <si>
-    <t>Bhopal - Varanasi Superfast Exp</t>
-  </si>
-  <si>
-    <t>10561</t>
-  </si>
-  <si>
-    <t>Nagpur - Coimbatore Superfast Exp</t>
-  </si>
-  <si>
-    <t>38717</t>
-  </si>
-  <si>
-    <t>Amritsar - Goa (Madgaon) Superfast Exp</t>
-  </si>
-  <si>
-    <t>47966</t>
-  </si>
-  <si>
-    <t>Gorakhpur - Dehradun Garib Rath</t>
-  </si>
-  <si>
-    <t>AC3:400|400|896.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|50|150|0:0:0;</t>
-  </si>
-  <si>
-    <t>91536</t>
-  </si>
-  <si>
-    <t>Bhopal - Pune Shatabdi Exp</t>
-  </si>
-  <si>
-    <t>CC:150|150|1224.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|20|50|0:0:0;EXEC:40|40|2550.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|5|10|0:0:0;</t>
-  </si>
-  <si>
-    <t>68671</t>
-  </si>
-  <si>
-    <t>Trivandrum - New Delhi Shatabdi Exp</t>
-  </si>
-  <si>
-    <t>93419</t>
-  </si>
-  <si>
-    <t>Vadodara - Indore Superfast Exp</t>
-  </si>
-  <si>
-    <t>68855</t>
-  </si>
-  <si>
-    <t>95065</t>
-  </si>
-  <si>
-    <t>Surat - Varanasi Passenger</t>
-  </si>
-  <si>
-    <t>GENERAL:200|200|306.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|0|0|0:0:0;</t>
-  </si>
-  <si>
-    <t>89897</t>
-  </si>
-  <si>
-    <t>Goa (Madgaon) - Bhubaneswar Superfast Exp</t>
-  </si>
-  <si>
-    <t>AC2:40|40|2640.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|10|20|0:0:0;AC3:64|64|1980.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|20|50|0:0:0;SLEEPER:300|300|792.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|50|200|0:0:0;GENERAL:100|100|396.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|0|0|0:0:0;</t>
-  </si>
-  <si>
-    <t>26986</t>
-  </si>
-  <si>
-    <t>Indore - Howrah Superfast Exp</t>
-  </si>
-  <si>
-    <t>92174</t>
-  </si>
-  <si>
-    <t>Surat - Gorakhpur Shatabdi Exp</t>
-  </si>
-  <si>
-    <t>44839</t>
-  </si>
-  <si>
-    <t>Vadodara - Jaipur Shatabdi Exp</t>
-  </si>
-  <si>
-    <t>64244</t>
-  </si>
-  <si>
-    <t>Amritsar - Vadodara Superfast Exp</t>
-  </si>
-  <si>
-    <t>79043</t>
-  </si>
-  <si>
-    <t>Bangalore - Jaipur Superfast Exp</t>
-  </si>
-  <si>
-    <t>75549</t>
-  </si>
-  <si>
-    <t>Goa (Madgaon) - Bhopal Superfast Exp</t>
-  </si>
-  <si>
-    <t>52267</t>
-  </si>
-  <si>
-    <t>Coimbatore - Jammu Tawi Superfast Exp</t>
-  </si>
-  <si>
-    <t>84872</t>
-  </si>
-  <si>
-    <t>Jaipur - Varanasi Superfast Exp</t>
-  </si>
-  <si>
-    <t>40005</t>
-  </si>
-  <si>
-    <t>Bhopal - Howrah Garib Rath</t>
+    <t>28808</t>
+  </si>
+  <si>
+    <t>Indore - Nagpur Superfast Exp</t>
+  </si>
+  <si>
+    <t>56655</t>
+  </si>
+  <si>
+    <t>Amritsar - Mumbai Central Superfast Exp</t>
+  </si>
+  <si>
+    <t>75978</t>
+  </si>
+  <si>
+    <t>Allahabad - Amritsar Garib Rath</t>
+  </si>
+  <si>
+    <t>AC3:400|399|896.0|XOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|50|150|0:0:0;</t>
+  </si>
+  <si>
+    <t>82754</t>
+  </si>
+  <si>
+    <t>Lucknow - Surat Garib Rath</t>
   </si>
   <si>
     <t>AC3:400|400|816.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|50|150|0:0:0;</t>
   </si>
   <si>
-    <t>21215</t>
-  </si>
-  <si>
-    <t>13051</t>
-  </si>
-  <si>
-    <t>Bhubaneswar - Dehradun Superfast Exp</t>
-  </si>
-  <si>
-    <t>40840</t>
-  </si>
-  <si>
-    <t>Jaipur - Kanpur Superfast Exp</t>
-  </si>
-  <si>
-    <t>61220</t>
-  </si>
-  <si>
-    <t>30558</t>
-  </si>
-  <si>
-    <t>Patna - Vadodara Passenger</t>
-  </si>
-  <si>
-    <t>27866</t>
-  </si>
-  <si>
-    <t>Jammu Tawi - Indore Superfast Exp</t>
-  </si>
-  <si>
-    <t>96471</t>
-  </si>
-  <si>
-    <t>Bhopal - Varanasi Garib Rath</t>
-  </si>
-  <si>
-    <t>16227</t>
-  </si>
-  <si>
-    <t>90097</t>
-  </si>
-  <si>
-    <t>Goa (Madgaon) - Vadodara Passenger</t>
-  </si>
-  <si>
-    <t>89861</t>
-  </si>
-  <si>
-    <t>Coimbatore - Bangalore Passenger</t>
-  </si>
-  <si>
-    <t>69702</t>
-  </si>
-  <si>
-    <t>Nagpur - Bhubaneswar Superfast Exp</t>
-  </si>
-  <si>
-    <t>42586</t>
-  </si>
-  <si>
-    <t>Vadodara - Varanasi Superfast Exp</t>
-  </si>
-  <si>
-    <t>38603</t>
-  </si>
-  <si>
-    <t>Pune - Mumbai Central Garib Rath</t>
-  </si>
-  <si>
-    <t>14987</t>
-  </si>
-  <si>
-    <t>Bhubaneswar - Howrah Garib Rath</t>
-  </si>
-  <si>
-    <t>65246</t>
-  </si>
-  <si>
-    <t>Guwahati - Gorakhpur Superfast Exp</t>
-  </si>
-  <si>
-    <t>81255</t>
-  </si>
-  <si>
-    <t>Patna - Bangalore Superfast Exp</t>
-  </si>
-  <si>
-    <t>38895</t>
-  </si>
-  <si>
-    <t>Allahabad - Jammu Tawi Superfast Exp</t>
+    <t>99310</t>
+  </si>
+  <si>
+    <t>32545</t>
+  </si>
+  <si>
+    <t>Coimbatore - Surat Shatabdi Exp</t>
+  </si>
+  <si>
+    <t>91452</t>
+  </si>
+  <si>
+    <t>Coimbatore - Lucknow Garib Rath</t>
+  </si>
+  <si>
+    <t>44819</t>
+  </si>
+  <si>
+    <t>Bhopal - Varanasi Passenger</t>
+  </si>
+  <si>
+    <t>GENERAL:200|199|312.0|XOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|0|0|0:0:0;</t>
+  </si>
+  <si>
+    <t>98554</t>
+  </si>
+  <si>
+    <t>Bhubaneswar - Surat Superfast Exp</t>
+  </si>
+  <si>
+    <t>40633</t>
+  </si>
+  <si>
+    <t>Ahmedabad - Amritsar Shatabdi Exp</t>
+  </si>
+  <si>
+    <t>CC:150|150|1392.0|OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|20|50|0:0:0;EXEC:40|39|2900.0|XOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO|5|10|0:0:0;</t>
+  </si>
+  <si>
+    <t>12987</t>
+  </si>
+  <si>
+    <t>Guwahati - Patna Passenger</t>
   </si>
 </sst>
 </file>
@@ -1440,7 +1590,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="12.0546875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="37.2578125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="37.76171875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="13.92578125" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="13.92578125" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="255.0" customWidth="true" bestFit="true"/>
@@ -1528,222 +1678,222 @@
         <v>13</v>
       </c>
       <c r="E5" t="s" s="0">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D6" t="s" s="0">
         <v>8</v>
       </c>
       <c r="E6" t="s" s="0">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D7" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="E7" t="s" s="0">
         <v>20</v>
-      </c>
-      <c r="B7" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="C7" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="D7" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="E7" t="s" s="0">
-        <v>19</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s" s="0">
         <v>8</v>
       </c>
       <c r="E8" t="s" s="0">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E9" t="s" s="0">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D10" t="s" s="0">
         <v>8</v>
       </c>
       <c r="E10" t="s" s="0">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="C11" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D11" t="s" s="0">
         <v>30</v>
       </c>
-      <c r="B11" t="s" s="0">
-        <v>27</v>
-      </c>
-      <c r="C11" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="D11" t="s" s="0">
-        <v>28</v>
-      </c>
       <c r="E11" t="s" s="0">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D12" t="s" s="0">
         <v>8</v>
       </c>
       <c r="E12" t="s" s="0">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C13" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E13" t="s" s="0">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D14" t="s" s="0">
         <v>8</v>
       </c>
       <c r="E14" t="s" s="0">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="B15" t="s" s="0">
         <v>39</v>
       </c>
-      <c r="B15" t="s" s="0">
-        <v>36</v>
-      </c>
       <c r="C15" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D15" t="s" s="0">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E15" t="s" s="0">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C16" t="s" s="0">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D16" t="s" s="0">
         <v>8</v>
       </c>
       <c r="E16" t="s" s="0">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="B17" t="s" s="0">
         <v>44</v>
       </c>
-      <c r="B17" t="s" s="0">
-        <v>41</v>
-      </c>
       <c r="C17" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D17" t="s" s="0">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E17" t="s" s="0">
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C18" t="s" s="0">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D18" t="s" s="0">
         <v>8</v>
@@ -1754,16 +1904,16 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C19" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D19" t="s" s="0">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E19" t="s" s="0">
         <v>14</v>
@@ -1771,3096 +1921,3096 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C20" t="s" s="0">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D20" t="s" s="0">
         <v>8</v>
       </c>
       <c r="E20" t="s" s="0">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C21" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D21" t="s" s="0">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E21" t="s" s="0">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C22" t="s" s="0">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D22" t="s" s="0">
         <v>8</v>
       </c>
       <c r="E22" t="s" s="0">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C23" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D23" t="s" s="0">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E23" t="s" s="0">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C24" t="s" s="0">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D24" t="s" s="0">
         <v>8</v>
       </c>
       <c r="E24" t="s" s="0">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C25" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D25" t="s" s="0">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="E25" t="s" s="0">
-        <v>14</v>
+        <v>67</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C26" t="s" s="0">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D26" t="s" s="0">
         <v>8</v>
       </c>
       <c r="E26" t="s" s="0">
-        <v>66</v>
+        <v>71</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C27" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D27" t="s" s="0">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="E27" t="s" s="0">
-        <v>66</v>
+        <v>71</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C28" t="s" s="0">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D28" t="s" s="0">
         <v>8</v>
       </c>
       <c r="E28" t="s" s="0">
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C29" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D29" t="s" s="0">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E29" t="s" s="0">
-        <v>71</v>
+        <v>78</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="C30" t="s" s="0">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="D30" t="s" s="0">
         <v>8</v>
       </c>
       <c r="E30" t="s" s="0">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="C31" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D31" t="s" s="0">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="E31" t="s" s="0">
-        <v>14</v>
+        <v>67</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="C32" t="s" s="0">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="D32" t="s" s="0">
         <v>8</v>
       </c>
       <c r="E32" t="s" s="0">
-        <v>66</v>
+        <v>71</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="C33" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D33" t="s" s="0">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="E33" t="s" s="0">
-        <v>66</v>
+        <v>71</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="C34" t="s" s="0">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="D34" t="s" s="0">
         <v>8</v>
       </c>
       <c r="E34" t="s" s="0">
-        <v>66</v>
+        <v>71</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="C35" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D35" t="s" s="0">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="E35" t="s" s="0">
-        <v>66</v>
+        <v>91</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="C36" t="s" s="0">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="D36" t="s" s="0">
         <v>8</v>
       </c>
       <c r="E36" t="s" s="0">
-        <v>66</v>
+        <v>71</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="C37" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D37" t="s" s="0">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="E37" t="s" s="0">
-        <v>66</v>
+        <v>71</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="C38" t="s" s="0">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="D38" t="s" s="0">
         <v>8</v>
       </c>
       <c r="E38" t="s" s="0">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="C39" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D39" t="s" s="0">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="E39" t="s" s="0">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="C40" t="s" s="0">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="D40" t="s" s="0">
         <v>8</v>
       </c>
       <c r="E40" t="s" s="0">
-        <v>96</v>
+        <v>103</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="C41" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D41" t="s" s="0">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="E41" t="s" s="0">
-        <v>96</v>
+        <v>105</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="C42" t="s" s="0">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="D42" t="s" s="0">
         <v>8</v>
       </c>
       <c r="E42" t="s" s="0">
-        <v>14</v>
+        <v>67</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="C43" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D43" t="s" s="0">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="E43" t="s" s="0">
-        <v>14</v>
+        <v>67</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="C44" t="s" s="0">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="D44" t="s" s="0">
         <v>8</v>
       </c>
       <c r="E44" t="s" s="0">
-        <v>14</v>
+        <v>67</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="C45" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D45" t="s" s="0">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="E45" t="s" s="0">
-        <v>14</v>
+        <v>67</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="C46" t="s" s="0">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="D46" t="s" s="0">
         <v>8</v>
       </c>
       <c r="E46" t="s" s="0">
-        <v>43</v>
+        <v>117</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="C47" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D47" t="s" s="0">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="E47" t="s" s="0">
-        <v>43</v>
+        <v>117</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="C48" t="s" s="0">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="D48" t="s" s="0">
         <v>8</v>
       </c>
       <c r="E48" t="s" s="0">
-        <v>66</v>
+        <v>71</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="C49" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D49" t="s" s="0">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="E49" t="s" s="0">
-        <v>66</v>
+        <v>123</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="C50" t="s" s="0">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="D50" t="s" s="0">
         <v>8</v>
       </c>
       <c r="E50" t="s" s="0">
-        <v>14</v>
+        <v>127</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="C51" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D51" t="s" s="0">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="E51" t="s" s="0">
-        <v>14</v>
+        <v>67</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="C52" t="s" s="0">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="D52" t="s" s="0">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E52" t="s" s="0">
-        <v>121</v>
+        <v>131</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="B53" t="s" s="0">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="C53" t="s" s="0">
-        <v>8</v>
+        <v>108</v>
       </c>
       <c r="D53" t="s" s="0">
-        <v>37</v>
+        <v>134</v>
       </c>
       <c r="E53" t="s" s="0">
-        <v>124</v>
+        <v>135</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="C54" t="s" s="0">
-        <v>37</v>
+        <v>85</v>
       </c>
       <c r="D54" t="s" s="0">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="E54" t="s" s="0">
-        <v>127</v>
+        <v>138</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="0">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="B55" t="s" s="0">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="C55" t="s" s="0">
-        <v>130</v>
+        <v>19</v>
       </c>
       <c r="D55" t="s" s="0">
-        <v>70</v>
+        <v>141</v>
       </c>
       <c r="E55" t="s" s="0">
-        <v>131</v>
+        <v>142</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="0">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="B56" t="s" s="0">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="C56" t="s" s="0">
         <v>7</v>
       </c>
       <c r="D56" t="s" s="0">
-        <v>65</v>
+        <v>121</v>
       </c>
       <c r="E56" t="s" s="0">
-        <v>134</v>
+        <v>145</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="C57" t="s" s="0">
+        <v>108</v>
+      </c>
+      <c r="D57" t="s" s="0">
         <v>112</v>
       </c>
-      <c r="D57" t="s" s="0">
-        <v>130</v>
-      </c>
       <c r="E57" t="s" s="0">
-        <v>121</v>
+        <v>148</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="B58" t="s" s="0">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="C58" t="s" s="0">
-        <v>79</v>
+        <v>141</v>
       </c>
       <c r="D58" t="s" s="0">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="E58" t="s" s="0">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="C59" t="s" s="0">
-        <v>87</v>
+        <v>19</v>
       </c>
       <c r="D59" t="s" s="0">
-        <v>116</v>
+        <v>153</v>
       </c>
       <c r="E59" t="s" s="0">
-        <v>142</v>
+        <v>154</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="0">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="B60" t="s" s="0">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="C60" t="s" s="0">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="D60" t="s" s="0">
-        <v>37</v>
+        <v>108</v>
       </c>
       <c r="E60" t="s" s="0">
-        <v>145</v>
+        <v>157</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="0">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="B61" t="s" s="0">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="C61" t="s" s="0">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="D61" t="s" s="0">
-        <v>18</v>
+        <v>108</v>
       </c>
       <c r="E61" t="s" s="0">
-        <v>148</v>
+        <v>160</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="0">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="B62" t="s" s="0">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="C62" t="s" s="0">
-        <v>83</v>
+        <v>134</v>
       </c>
       <c r="D62" t="s" s="0">
-        <v>79</v>
+        <v>153</v>
       </c>
       <c r="E62" t="s" s="0">
-        <v>151</v>
+        <v>163</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="0">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="B63" t="s" s="0">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="C63" t="s" s="0">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="D63" t="s" s="0">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="E63" t="s" s="0">
-        <v>154</v>
+        <v>166</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="0">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="B64" t="s" s="0">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="C64" t="s" s="0">
-        <v>108</v>
+        <v>7</v>
       </c>
       <c r="D64" t="s" s="0">
-        <v>112</v>
+        <v>13</v>
       </c>
       <c r="E64" t="s" s="0">
-        <v>157</v>
+        <v>169</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="0">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="B65" t="s" s="0">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="C65" t="s" s="0">
-        <v>56</v>
+        <v>81</v>
       </c>
       <c r="D65" t="s" s="0">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="E65" t="s" s="0">
-        <v>160</v>
+        <v>148</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="0">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="B66" t="s" s="0">
-        <v>162</v>
+        <v>173</v>
       </c>
       <c r="C66" t="s" s="0">
-        <v>112</v>
+        <v>7</v>
       </c>
       <c r="D66" t="s" s="0">
-        <v>13</v>
+        <v>153</v>
       </c>
       <c r="E66" t="s" s="0">
-        <v>142</v>
+        <v>174</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="0">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="B67" t="s" s="0">
-        <v>164</v>
+        <v>176</v>
       </c>
       <c r="C67" t="s" s="0">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="D67" t="s" s="0">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E67" t="s" s="0">
-        <v>160</v>
+        <v>177</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="0">
-        <v>165</v>
+        <v>178</v>
       </c>
       <c r="B68" t="s" s="0">
-        <v>166</v>
+        <v>179</v>
       </c>
       <c r="C68" t="s" s="0">
-        <v>28</v>
+        <v>134</v>
       </c>
       <c r="D68" t="s" s="0">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="E68" t="s" s="0">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="0">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="B69" t="s" s="0">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="C69" t="s" s="0">
-        <v>87</v>
+        <v>36</v>
       </c>
       <c r="D69" t="s" s="0">
-        <v>7</v>
+        <v>121</v>
       </c>
       <c r="E69" t="s" s="0">
-        <v>170</v>
+        <v>182</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="0">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="B70" t="s" s="0">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="C70" t="s" s="0">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D70" t="s" s="0">
-        <v>47</v>
+        <v>102</v>
       </c>
       <c r="E70" t="s" s="0">
-        <v>173</v>
+        <v>185</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="0">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="B71" t="s" s="0">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="C71" t="s" s="0">
-        <v>176</v>
+        <v>134</v>
       </c>
       <c r="D71" t="s" s="0">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="E71" t="s" s="0">
-        <v>160</v>
+        <v>188</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="0">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="B72" t="s" s="0">
-        <v>178</v>
+        <v>190</v>
       </c>
       <c r="C72" t="s" s="0">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="D72" t="s" s="0">
-        <v>83</v>
+        <v>19</v>
       </c>
       <c r="E72" t="s" s="0">
-        <v>179</v>
+        <v>191</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="0">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="B73" t="s" s="0">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="C73" t="s" s="0">
-        <v>75</v>
+        <v>134</v>
       </c>
       <c r="D73" t="s" s="0">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="E73" t="s" s="0">
-        <v>182</v>
+        <v>194</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="0">
-        <v>183</v>
+        <v>195</v>
       </c>
       <c r="B74" t="s" s="0">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="C74" t="s" s="0">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D74" t="s" s="0">
-        <v>95</v>
+        <v>36</v>
       </c>
       <c r="E74" t="s" s="0">
-        <v>185</v>
+        <v>197</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="0">
-        <v>186</v>
+        <v>198</v>
       </c>
       <c r="B75" t="s" s="0">
-        <v>187</v>
+        <v>199</v>
       </c>
       <c r="C75" t="s" s="0">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="D75" t="s" s="0">
-        <v>108</v>
+        <v>24</v>
       </c>
       <c r="E75" t="s" s="0">
-        <v>188</v>
+        <v>135</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="0">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="B76" t="s" s="0">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="C76" t="s" s="0">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="D76" t="s" s="0">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E76" t="s" s="0">
-        <v>154</v>
+        <v>202</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="0">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="B77" t="s" s="0">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="C77" t="s" s="0">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="D77" t="s" s="0">
-        <v>7</v>
+        <v>108</v>
       </c>
       <c r="E77" t="s" s="0">
-        <v>131</v>
+        <v>197</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="0">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="B78" t="s" s="0">
-        <v>194</v>
+        <v>206</v>
       </c>
       <c r="C78" t="s" s="0">
-        <v>8</v>
+        <v>126</v>
       </c>
       <c r="D78" t="s" s="0">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="E78" t="s" s="0">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="0">
-        <v>196</v>
+        <v>207</v>
       </c>
       <c r="B79" t="s" s="0">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="C79" t="s" s="0">
-        <v>18</v>
+        <v>102</v>
       </c>
       <c r="D79" t="s" s="0">
-        <v>130</v>
+        <v>94</v>
       </c>
       <c r="E79" t="s" s="0">
-        <v>198</v>
+        <v>209</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="0">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="B80" t="s" s="0">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="C80" t="s" s="0">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="D80" t="s" s="0">
-        <v>18</v>
+        <v>81</v>
       </c>
       <c r="E80" t="s" s="0">
-        <v>201</v>
+        <v>212</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="0">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="B81" t="s" s="0">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="C81" t="s" s="0">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="D81" t="s" s="0">
-        <v>7</v>
+        <v>102</v>
       </c>
       <c r="E81" t="s" s="0">
-        <v>167</v>
+        <v>215</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="0">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="B82" t="s" s="0">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="C82" t="s" s="0">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="D82" t="s" s="0">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="E82" t="s" s="0">
-        <v>195</v>
+        <v>218</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="0">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="B83" t="s" s="0">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="C83" t="s" s="0">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="D83" t="s" s="0">
-        <v>70</v>
+        <v>24</v>
       </c>
       <c r="E83" t="s" s="0">
-        <v>160</v>
+        <v>221</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="0">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="B84" t="s" s="0">
-        <v>209</v>
+        <v>223</v>
       </c>
       <c r="C84" t="s" s="0">
-        <v>33</v>
+        <v>94</v>
       </c>
       <c r="D84" t="s" s="0">
-        <v>104</v>
+        <v>51</v>
       </c>
       <c r="E84" t="s" s="0">
-        <v>173</v>
+        <v>202</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="0">
-        <v>210</v>
+        <v>224</v>
       </c>
       <c r="B85" t="s" s="0">
-        <v>211</v>
+        <v>225</v>
       </c>
       <c r="C85" t="s" s="0">
-        <v>28</v>
+        <v>153</v>
       </c>
       <c r="D85" t="s" s="0">
-        <v>83</v>
+        <v>108</v>
       </c>
       <c r="E85" t="s" s="0">
-        <v>212</v>
+        <v>226</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="0">
-        <v>213</v>
+        <v>227</v>
       </c>
       <c r="B86" t="s" s="0">
-        <v>214</v>
+        <v>228</v>
       </c>
       <c r="C86" t="s" s="0">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D86" t="s" s="0">
-        <v>104</v>
+        <v>40</v>
       </c>
       <c r="E86" t="s" s="0">
-        <v>139</v>
+        <v>229</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="0">
-        <v>215</v>
+        <v>230</v>
       </c>
       <c r="B87" t="s" s="0">
-        <v>216</v>
+        <v>231</v>
       </c>
       <c r="C87" t="s" s="0">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="D87" t="s" s="0">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="E87" t="s" s="0">
-        <v>217</v>
+        <v>232</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s" s="0">
-        <v>218</v>
+        <v>233</v>
       </c>
       <c r="B88" t="s" s="0">
-        <v>219</v>
+        <v>234</v>
       </c>
       <c r="C88" t="s" s="0">
-        <v>18</v>
+        <v>102</v>
       </c>
       <c r="D88" t="s" s="0">
-        <v>104</v>
+        <v>45</v>
       </c>
       <c r="E88" t="s" s="0">
-        <v>220</v>
+        <v>235</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s" s="0">
-        <v>221</v>
+        <v>236</v>
       </c>
       <c r="B89" t="s" s="0">
-        <v>222</v>
+        <v>237</v>
       </c>
       <c r="C89" t="s" s="0">
-        <v>87</v>
+        <v>121</v>
       </c>
       <c r="D89" t="s" s="0">
-        <v>56</v>
+        <v>141</v>
       </c>
       <c r="E89" t="s" s="0">
-        <v>223</v>
+        <v>163</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s" s="0">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="B90" t="s" s="0">
-        <v>225</v>
+        <v>239</v>
       </c>
       <c r="C90" t="s" s="0">
-        <v>116</v>
+        <v>45</v>
       </c>
       <c r="D90" t="s" s="0">
-        <v>83</v>
+        <v>108</v>
       </c>
       <c r="E90" t="s" s="0">
-        <v>226</v>
+        <v>240</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s" s="0">
-        <v>227</v>
+        <v>241</v>
       </c>
       <c r="B91" t="s" s="0">
-        <v>228</v>
+        <v>242</v>
       </c>
       <c r="C91" t="s" s="0">
-        <v>75</v>
+        <v>102</v>
       </c>
       <c r="D91" t="s" s="0">
-        <v>42</v>
+        <v>94</v>
       </c>
       <c r="E91" t="s" s="0">
-        <v>229</v>
+        <v>191</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s" s="0">
-        <v>230</v>
+        <v>243</v>
       </c>
       <c r="B92" t="s" s="0">
-        <v>231</v>
+        <v>244</v>
       </c>
       <c r="C92" t="s" s="0">
-        <v>70</v>
+        <v>116</v>
       </c>
       <c r="D92" t="s" s="0">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="E92" t="s" s="0">
-        <v>232</v>
+        <v>135</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s" s="0">
-        <v>233</v>
+        <v>245</v>
       </c>
       <c r="B93" t="s" s="0">
-        <v>200</v>
+        <v>246</v>
       </c>
       <c r="C93" t="s" s="0">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="D93" t="s" s="0">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="E93" t="s" s="0">
-        <v>201</v>
+        <v>247</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s" s="0">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="B94" t="s" s="0">
-        <v>235</v>
+        <v>249</v>
       </c>
       <c r="C94" t="s" s="0">
-        <v>18</v>
+        <v>126</v>
       </c>
       <c r="D94" t="s" s="0">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E94" t="s" s="0">
-        <v>232</v>
+        <v>250</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s" s="0">
-        <v>236</v>
+        <v>251</v>
       </c>
       <c r="B95" t="s" s="0">
-        <v>237</v>
+        <v>252</v>
       </c>
       <c r="C95" t="s" s="0">
-        <v>18</v>
+        <v>94</v>
       </c>
       <c r="D95" t="s" s="0">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="E95" t="s" s="0">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s" s="0">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="B96" t="s" s="0">
-        <v>239</v>
+        <v>254</v>
       </c>
       <c r="C96" t="s" s="0">
-        <v>8</v>
+        <v>112</v>
       </c>
       <c r="D96" t="s" s="0">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="E96" t="s" s="0">
-        <v>131</v>
+        <v>226</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s" s="0">
-        <v>240</v>
+        <v>255</v>
       </c>
       <c r="B97" t="s" s="0">
-        <v>241</v>
+        <v>256</v>
       </c>
       <c r="C97" t="s" s="0">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D97" t="s" s="0">
-        <v>120</v>
+        <v>65</v>
       </c>
       <c r="E97" t="s" s="0">
-        <v>154</v>
+        <v>257</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s" s="0">
-        <v>242</v>
+        <v>258</v>
       </c>
       <c r="B98" t="s" s="0">
-        <v>243</v>
+        <v>259</v>
       </c>
       <c r="C98" t="s" s="0">
-        <v>33</v>
+        <v>102</v>
       </c>
       <c r="D98" t="s" s="0">
-        <v>8</v>
+        <v>85</v>
       </c>
       <c r="E98" t="s" s="0">
-        <v>195</v>
+        <v>260</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s" s="0">
-        <v>244</v>
+        <v>261</v>
       </c>
       <c r="B99" t="s" s="0">
-        <v>245</v>
+        <v>262</v>
       </c>
       <c r="C99" t="s" s="0">
-        <v>120</v>
+        <v>55</v>
       </c>
       <c r="D99" t="s" s="0">
-        <v>51</v>
+        <v>134</v>
       </c>
       <c r="E99" t="s" s="0">
-        <v>151</v>
+        <v>263</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s" s="0">
-        <v>246</v>
+        <v>264</v>
       </c>
       <c r="B100" t="s" s="0">
-        <v>247</v>
+        <v>265</v>
       </c>
       <c r="C100" t="s" s="0">
-        <v>176</v>
+        <v>134</v>
       </c>
       <c r="D100" t="s" s="0">
-        <v>95</v>
+        <v>45</v>
       </c>
       <c r="E100" t="s" s="0">
-        <v>201</v>
+        <v>266</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s" s="0">
-        <v>248</v>
+        <v>267</v>
       </c>
       <c r="B101" t="s" s="0">
-        <v>249</v>
+        <v>268</v>
       </c>
       <c r="C101" t="s" s="0">
-        <v>56</v>
+        <v>112</v>
       </c>
       <c r="D101" t="s" s="0">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E101" t="s" s="0">
-        <v>131</v>
+        <v>269</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s" s="0">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="B102" t="s" s="0">
-        <v>251</v>
+        <v>271</v>
       </c>
       <c r="C102" t="s" s="0">
         <v>13</v>
       </c>
       <c r="D102" t="s" s="0">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E102" t="s" s="0">
-        <v>167</v>
+        <v>226</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s" s="0">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="B103" t="s" s="0">
-        <v>253</v>
+        <v>273</v>
       </c>
       <c r="C103" t="s" s="0">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="D103" t="s" s="0">
-        <v>37</v>
+        <v>126</v>
       </c>
       <c r="E103" t="s" s="0">
-        <v>142</v>
+        <v>274</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s" s="0">
-        <v>254</v>
+        <v>275</v>
       </c>
       <c r="B104" t="s" s="0">
-        <v>255</v>
+        <v>276</v>
       </c>
       <c r="C104" t="s" s="0">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="D104" t="s" s="0">
-        <v>28</v>
+        <v>134</v>
       </c>
       <c r="E104" t="s" s="0">
-        <v>160</v>
+        <v>182</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s" s="0">
-        <v>256</v>
+        <v>277</v>
       </c>
       <c r="B105" t="s" s="0">
-        <v>257</v>
+        <v>278</v>
       </c>
       <c r="C105" t="s" s="0">
-        <v>33</v>
+        <v>153</v>
       </c>
       <c r="D105" t="s" s="0">
-        <v>56</v>
+        <v>98</v>
       </c>
       <c r="E105" t="s" s="0">
-        <v>160</v>
+        <v>279</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s" s="0">
-        <v>258</v>
+        <v>280</v>
       </c>
       <c r="B106" t="s" s="0">
-        <v>259</v>
+        <v>281</v>
       </c>
       <c r="C106" t="s" s="0">
-        <v>13</v>
+        <v>121</v>
       </c>
       <c r="D106" t="s" s="0">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E106" t="s" s="0">
-        <v>260</v>
+        <v>282</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s" s="0">
-        <v>261</v>
+        <v>283</v>
       </c>
       <c r="B107" t="s" s="0">
-        <v>262</v>
+        <v>284</v>
       </c>
       <c r="C107" t="s" s="0">
-        <v>75</v>
+        <v>141</v>
       </c>
       <c r="D107" t="s" s="0">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="E107" t="s" s="0">
-        <v>154</v>
+        <v>279</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s" s="0">
-        <v>263</v>
+        <v>285</v>
       </c>
       <c r="B108" t="s" s="0">
-        <v>264</v>
+        <v>286</v>
       </c>
       <c r="C108" t="s" s="0">
-        <v>56</v>
+        <v>141</v>
       </c>
       <c r="D108" t="s" s="0">
-        <v>120</v>
+        <v>19</v>
       </c>
       <c r="E108" t="s" s="0">
-        <v>160</v>
+        <v>287</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s" s="0">
-        <v>265</v>
+        <v>288</v>
       </c>
       <c r="B109" t="s" s="0">
-        <v>266</v>
+        <v>246</v>
       </c>
       <c r="C109" t="s" s="0">
-        <v>28</v>
+        <v>70</v>
       </c>
       <c r="D109" t="s" s="0">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="E109" t="s" s="0">
-        <v>223</v>
+        <v>247</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s" s="0">
-        <v>267</v>
+        <v>289</v>
       </c>
       <c r="B110" t="s" s="0">
-        <v>268</v>
+        <v>290</v>
       </c>
       <c r="C110" t="s" s="0">
-        <v>23</v>
+        <v>81</v>
       </c>
       <c r="D110" t="s" s="0">
-        <v>116</v>
+        <v>153</v>
       </c>
       <c r="E110" t="s" s="0">
-        <v>269</v>
+        <v>194</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s" s="0">
-        <v>270</v>
+        <v>291</v>
       </c>
       <c r="B111" t="s" s="0">
-        <v>271</v>
+        <v>292</v>
       </c>
       <c r="C111" t="s" s="0">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="D111" t="s" s="0">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="E111" t="s" s="0">
-        <v>272</v>
+        <v>135</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s" s="0">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="B112" t="s" s="0">
-        <v>274</v>
+        <v>294</v>
       </c>
       <c r="C112" t="s" s="0">
-        <v>79</v>
+        <v>141</v>
       </c>
       <c r="D112" t="s" s="0">
-        <v>37</v>
+        <v>108</v>
       </c>
       <c r="E112" t="s" s="0">
-        <v>182</v>
+        <v>221</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s" s="0">
-        <v>275</v>
+        <v>295</v>
       </c>
       <c r="B113" t="s" s="0">
-        <v>276</v>
+        <v>296</v>
       </c>
       <c r="C113" t="s" s="0">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="D113" t="s" s="0">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="E113" t="s" s="0">
-        <v>131</v>
+        <v>297</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s" s="0">
-        <v>277</v>
+        <v>298</v>
       </c>
       <c r="B114" t="s" s="0">
-        <v>278</v>
+        <v>299</v>
       </c>
       <c r="C114" t="s" s="0">
-        <v>37</v>
+        <v>153</v>
       </c>
       <c r="D114" t="s" s="0">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="E114" t="s" s="0">
-        <v>127</v>
+        <v>300</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s" s="0">
-        <v>279</v>
+        <v>301</v>
       </c>
       <c r="B115" t="s" s="0">
-        <v>280</v>
+        <v>302</v>
       </c>
       <c r="C115" t="s" s="0">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="D115" t="s" s="0">
-        <v>33</v>
+        <v>102</v>
       </c>
       <c r="E115" t="s" s="0">
-        <v>142</v>
+        <v>303</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s" s="0">
-        <v>281</v>
+        <v>304</v>
       </c>
       <c r="B116" t="s" s="0">
-        <v>282</v>
+        <v>305</v>
       </c>
       <c r="C116" t="s" s="0">
-        <v>87</v>
+        <v>126</v>
       </c>
       <c r="D116" t="s" s="0">
-        <v>100</v>
+        <v>7</v>
       </c>
       <c r="E116" t="s" s="0">
-        <v>226</v>
+        <v>306</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s" s="0">
-        <v>283</v>
+        <v>307</v>
       </c>
       <c r="B117" t="s" s="0">
-        <v>284</v>
+        <v>308</v>
       </c>
       <c r="C117" t="s" s="0">
-        <v>108</v>
+        <v>40</v>
       </c>
       <c r="D117" t="s" s="0">
-        <v>87</v>
+        <v>55</v>
       </c>
       <c r="E117" t="s" s="0">
-        <v>124</v>
+        <v>309</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s" s="0">
-        <v>285</v>
+        <v>310</v>
       </c>
       <c r="B118" t="s" s="0">
-        <v>286</v>
+        <v>311</v>
       </c>
       <c r="C118" t="s" s="0">
-        <v>47</v>
+        <v>98</v>
       </c>
       <c r="D118" t="s" s="0">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="E118" t="s" s="0">
-        <v>287</v>
+        <v>263</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s" s="0">
-        <v>288</v>
+        <v>312</v>
       </c>
       <c r="B119" t="s" s="0">
-        <v>192</v>
+        <v>313</v>
       </c>
       <c r="C119" t="s" s="0">
-        <v>75</v>
+        <v>7</v>
       </c>
       <c r="D119" t="s" s="0">
-        <v>7</v>
+        <v>70</v>
       </c>
       <c r="E119" t="s" s="0">
-        <v>131</v>
+        <v>314</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s" s="0">
-        <v>289</v>
+        <v>315</v>
       </c>
       <c r="B120" t="s" s="0">
-        <v>290</v>
+        <v>316</v>
       </c>
       <c r="C120" t="s" s="0">
-        <v>42</v>
+        <v>121</v>
       </c>
       <c r="D120" t="s" s="0">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="E120" t="s" s="0">
-        <v>157</v>
+        <v>197</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s" s="0">
-        <v>291</v>
+        <v>317</v>
       </c>
       <c r="B121" t="s" s="0">
-        <v>292</v>
+        <v>318</v>
       </c>
       <c r="C121" t="s" s="0">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="D121" t="s" s="0">
-        <v>18</v>
+        <v>153</v>
       </c>
       <c r="E121" t="s" s="0">
-        <v>217</v>
+        <v>319</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s" s="0">
-        <v>293</v>
+        <v>320</v>
       </c>
       <c r="B122" t="s" s="0">
-        <v>294</v>
+        <v>321</v>
       </c>
       <c r="C122" t="s" s="0">
-        <v>79</v>
+        <v>126</v>
       </c>
       <c r="D122" t="s" s="0">
-        <v>13</v>
+        <v>81</v>
       </c>
       <c r="E122" t="s" s="0">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s" s="0">
-        <v>295</v>
+        <v>322</v>
       </c>
       <c r="B123" t="s" s="0">
-        <v>296</v>
+        <v>323</v>
       </c>
       <c r="C123" t="s" s="0">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D123" t="s" s="0">
-        <v>91</v>
+        <v>36</v>
       </c>
       <c r="E123" t="s" s="0">
-        <v>223</v>
+        <v>324</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s" s="0">
-        <v>297</v>
+        <v>325</v>
       </c>
       <c r="B124" t="s" s="0">
-        <v>298</v>
+        <v>326</v>
       </c>
       <c r="C124" t="s" s="0">
-        <v>95</v>
+        <v>141</v>
       </c>
       <c r="D124" t="s" s="0">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="E124" t="s" s="0">
-        <v>160</v>
+        <v>324</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s" s="0">
-        <v>299</v>
+        <v>327</v>
       </c>
       <c r="B125" t="s" s="0">
-        <v>300</v>
+        <v>328</v>
       </c>
       <c r="C125" t="s" s="0">
-        <v>51</v>
+        <v>7</v>
       </c>
       <c r="D125" t="s" s="0">
-        <v>130</v>
+        <v>94</v>
       </c>
       <c r="E125" t="s" s="0">
-        <v>151</v>
+        <v>329</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s" s="0">
-        <v>301</v>
+        <v>330</v>
       </c>
       <c r="B126" t="s" s="0">
-        <v>302</v>
+        <v>331</v>
       </c>
       <c r="C126" t="s" s="0">
-        <v>112</v>
+        <v>60</v>
       </c>
       <c r="D126" t="s" s="0">
-        <v>18</v>
+        <v>102</v>
       </c>
       <c r="E126" t="s" s="0">
-        <v>303</v>
+        <v>332</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s" s="0">
-        <v>304</v>
+        <v>333</v>
       </c>
       <c r="B127" t="s" s="0">
-        <v>305</v>
+        <v>334</v>
       </c>
       <c r="C127" t="s" s="0">
-        <v>37</v>
+        <v>98</v>
       </c>
       <c r="D127" t="s" s="0">
-        <v>56</v>
+        <v>94</v>
       </c>
       <c r="E127" t="s" s="0">
-        <v>142</v>
+        <v>335</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s" s="0">
-        <v>306</v>
+        <v>336</v>
       </c>
       <c r="B128" t="s" s="0">
-        <v>307</v>
+        <v>337</v>
       </c>
       <c r="C128" t="s" s="0">
-        <v>47</v>
+        <v>81</v>
       </c>
       <c r="D128" t="s" s="0">
-        <v>87</v>
+        <v>153</v>
       </c>
       <c r="E128" t="s" s="0">
-        <v>272</v>
+        <v>338</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s" s="0">
-        <v>308</v>
+        <v>339</v>
       </c>
       <c r="B129" t="s" s="0">
-        <v>309</v>
+        <v>340</v>
       </c>
       <c r="C129" t="s" s="0">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="D129" t="s" s="0">
-        <v>91</v>
+        <v>40</v>
       </c>
       <c r="E129" t="s" s="0">
-        <v>185</v>
+        <v>341</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s" s="0">
-        <v>310</v>
+        <v>342</v>
       </c>
       <c r="B130" t="s" s="0">
-        <v>311</v>
+        <v>343</v>
       </c>
       <c r="C130" t="s" s="0">
-        <v>108</v>
+        <v>75</v>
       </c>
       <c r="D130" t="s" s="0">
-        <v>95</v>
+        <v>7</v>
       </c>
       <c r="E130" t="s" s="0">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s" s="0">
-        <v>312</v>
+        <v>344</v>
       </c>
       <c r="B131" t="s" s="0">
-        <v>313</v>
+        <v>345</v>
       </c>
       <c r="C131" t="s" s="0">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D131" t="s" s="0">
-        <v>116</v>
+        <v>134</v>
       </c>
       <c r="E131" t="s" s="0">
-        <v>314</v>
+        <v>260</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s" s="0">
-        <v>315</v>
+        <v>346</v>
       </c>
       <c r="B132" t="s" s="0">
-        <v>316</v>
+        <v>347</v>
       </c>
       <c r="C132" t="s" s="0">
-        <v>42</v>
+        <v>116</v>
       </c>
       <c r="D132" t="s" s="0">
-        <v>61</v>
+        <v>7</v>
       </c>
       <c r="E132" t="s" s="0">
-        <v>317</v>
+        <v>279</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s" s="0">
-        <v>318</v>
+        <v>348</v>
       </c>
       <c r="B133" t="s" s="0">
-        <v>319</v>
+        <v>349</v>
       </c>
       <c r="C133" t="s" s="0">
-        <v>116</v>
+        <v>30</v>
       </c>
       <c r="D133" t="s" s="0">
-        <v>130</v>
+        <v>8</v>
       </c>
       <c r="E133" t="s" s="0">
-        <v>154</v>
+        <v>350</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s" s="0">
-        <v>320</v>
+        <v>351</v>
       </c>
       <c r="B134" t="s" s="0">
-        <v>321</v>
+        <v>352</v>
       </c>
       <c r="C134" t="s" s="0">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="D134" t="s" s="0">
-        <v>75</v>
+        <v>153</v>
       </c>
       <c r="E134" t="s" s="0">
-        <v>322</v>
+        <v>182</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s" s="0">
-        <v>323</v>
+        <v>353</v>
       </c>
       <c r="B135" t="s" s="0">
-        <v>324</v>
+        <v>354</v>
       </c>
       <c r="C135" t="s" s="0">
-        <v>91</v>
+        <v>121</v>
       </c>
       <c r="D135" t="s" s="0">
-        <v>176</v>
+        <v>85</v>
       </c>
       <c r="E135" t="s" s="0">
-        <v>131</v>
+        <v>355</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s" s="0">
-        <v>325</v>
+        <v>356</v>
       </c>
       <c r="B136" t="s" s="0">
-        <v>326</v>
+        <v>357</v>
       </c>
       <c r="C136" t="s" s="0">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D136" t="s" s="0">
-        <v>116</v>
+        <v>55</v>
       </c>
       <c r="E136" t="s" s="0">
-        <v>154</v>
+        <v>358</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s" s="0">
-        <v>327</v>
+        <v>359</v>
       </c>
       <c r="B137" t="s" s="0">
-        <v>328</v>
+        <v>360</v>
       </c>
       <c r="C137" t="s" s="0">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="D137" t="s" s="0">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="E137" t="s" s="0">
-        <v>329</v>
+        <v>361</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s" s="0">
-        <v>330</v>
+        <v>362</v>
       </c>
       <c r="B138" t="s" s="0">
-        <v>331</v>
+        <v>363</v>
       </c>
       <c r="C138" t="s" s="0">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="D138" t="s" s="0">
-        <v>8</v>
+        <v>102</v>
       </c>
       <c r="E138" t="s" s="0">
-        <v>195</v>
+        <v>279</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s" s="0">
-        <v>332</v>
+        <v>364</v>
       </c>
       <c r="B139" t="s" s="0">
-        <v>333</v>
+        <v>252</v>
       </c>
       <c r="C139" t="s" s="0">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="D139" t="s" s="0">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="E139" t="s" s="0">
-        <v>272</v>
+        <v>197</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s" s="0">
-        <v>334</v>
+        <v>365</v>
       </c>
       <c r="B140" t="s" s="0">
-        <v>335</v>
+        <v>366</v>
       </c>
       <c r="C140" t="s" s="0">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="D140" t="s" s="0">
-        <v>65</v>
+        <v>153</v>
       </c>
       <c r="E140" t="s" s="0">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s" s="0">
-        <v>336</v>
+        <v>367</v>
       </c>
       <c r="B141" t="s" s="0">
-        <v>337</v>
+        <v>368</v>
       </c>
       <c r="C141" t="s" s="0">
-        <v>51</v>
+        <v>134</v>
       </c>
       <c r="D141" t="s" s="0">
-        <v>28</v>
+        <v>102</v>
       </c>
       <c r="E141" t="s" s="0">
-        <v>322</v>
+        <v>329</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s" s="0">
-        <v>338</v>
+        <v>369</v>
       </c>
       <c r="B142" t="s" s="0">
-        <v>339</v>
+        <v>370</v>
       </c>
       <c r="C142" t="s" s="0">
-        <v>87</v>
+        <v>45</v>
       </c>
       <c r="D142" t="s" s="0">
-        <v>37</v>
+        <v>153</v>
       </c>
       <c r="E142" t="s" s="0">
-        <v>182</v>
+        <v>266</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s" s="0">
-        <v>340</v>
+        <v>371</v>
       </c>
       <c r="B143" t="s" s="0">
-        <v>341</v>
+        <v>372</v>
       </c>
       <c r="C143" t="s" s="0">
-        <v>116</v>
+        <v>60</v>
       </c>
       <c r="D143" t="s" s="0">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E143" t="s" s="0">
-        <v>342</v>
+        <v>373</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s" s="0">
-        <v>343</v>
+        <v>374</v>
       </c>
       <c r="B144" t="s" s="0">
-        <v>344</v>
+        <v>375</v>
       </c>
       <c r="C144" t="s" s="0">
-        <v>42</v>
+        <v>102</v>
       </c>
       <c r="D144" t="s" s="0">
-        <v>120</v>
+        <v>45</v>
       </c>
       <c r="E144" t="s" s="0">
-        <v>142</v>
+        <v>376</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s" s="0">
-        <v>345</v>
+        <v>377</v>
       </c>
       <c r="B145" t="s" s="0">
-        <v>162</v>
+        <v>378</v>
       </c>
       <c r="C145" t="s" s="0">
-        <v>112</v>
+        <v>81</v>
       </c>
       <c r="D145" t="s" s="0">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E145" t="s" s="0">
-        <v>142</v>
+        <v>226</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s" s="0">
-        <v>346</v>
+        <v>379</v>
       </c>
       <c r="B146" t="s" s="0">
-        <v>347</v>
+        <v>380</v>
       </c>
       <c r="C146" t="s" s="0">
-        <v>70</v>
+        <v>98</v>
       </c>
       <c r="D146" t="s" s="0">
-        <v>87</v>
+        <v>7</v>
       </c>
       <c r="E146" t="s" s="0">
-        <v>348</v>
+        <v>381</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s" s="0">
-        <v>349</v>
+        <v>382</v>
       </c>
       <c r="B147" t="s" s="0">
+        <v>383</v>
+      </c>
+      <c r="C147" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="D147" t="s" s="0">
+        <v>126</v>
+      </c>
+      <c r="E147" t="s" s="0">
         <v>350</v>
-      </c>
-      <c r="C147" t="s" s="0">
-        <v>23</v>
-      </c>
-      <c r="D147" t="s" s="0">
-        <v>51</v>
-      </c>
-      <c r="E147" t="s" s="0">
-        <v>342</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s" s="0">
-        <v>351</v>
+        <v>384</v>
       </c>
       <c r="B148" t="s" s="0">
-        <v>352</v>
+        <v>385</v>
       </c>
       <c r="C148" t="s" s="0">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D148" t="s" s="0">
-        <v>42</v>
+        <v>153</v>
       </c>
       <c r="E148" t="s" s="0">
-        <v>121</v>
+        <v>260</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s" s="0">
-        <v>353</v>
+        <v>386</v>
       </c>
       <c r="B149" t="s" s="0">
-        <v>354</v>
+        <v>387</v>
       </c>
       <c r="C149" t="s" s="0">
-        <v>95</v>
+        <v>7</v>
       </c>
       <c r="D149" t="s" s="0">
-        <v>108</v>
+        <v>60</v>
       </c>
       <c r="E149" t="s" s="0">
-        <v>185</v>
+        <v>388</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s" s="0">
-        <v>355</v>
+        <v>389</v>
       </c>
       <c r="B150" t="s" s="0">
-        <v>356</v>
+        <v>390</v>
       </c>
       <c r="C150" t="s" s="0">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="D150" t="s" s="0">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="E150" t="s" s="0">
-        <v>357</v>
+        <v>135</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s" s="0">
-        <v>358</v>
+        <v>391</v>
       </c>
       <c r="B151" t="s" s="0">
-        <v>359</v>
+        <v>392</v>
       </c>
       <c r="C151" t="s" s="0">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="D151" t="s" s="0">
-        <v>13</v>
+        <v>121</v>
       </c>
       <c r="E151" t="s" s="0">
-        <v>142</v>
+        <v>279</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s" s="0">
-        <v>360</v>
+        <v>393</v>
       </c>
       <c r="B152" t="s" s="0">
-        <v>361</v>
+        <v>394</v>
       </c>
       <c r="C152" t="s" s="0">
-        <v>28</v>
+        <v>81</v>
       </c>
       <c r="D152" t="s" s="0">
-        <v>37</v>
+        <v>134</v>
       </c>
       <c r="E152" t="s" s="0">
-        <v>342</v>
+        <v>135</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s" s="0">
-        <v>362</v>
+        <v>395</v>
       </c>
       <c r="B153" t="s" s="0">
-        <v>363</v>
+        <v>396</v>
       </c>
       <c r="C153" t="s" s="0">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="D153" t="s" s="0">
-        <v>65</v>
+        <v>102</v>
       </c>
       <c r="E153" t="s" s="0">
-        <v>121</v>
+        <v>397</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s" s="0">
-        <v>364</v>
+        <v>398</v>
       </c>
       <c r="B154" t="s" s="0">
-        <v>300</v>
+        <v>399</v>
       </c>
       <c r="C154" t="s" s="0">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="D154" t="s" s="0">
-        <v>130</v>
+        <v>8</v>
       </c>
       <c r="E154" t="s" s="0">
-        <v>151</v>
+        <v>194</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s" s="0">
-        <v>365</v>
+        <v>400</v>
       </c>
       <c r="B155" t="s" s="0">
-        <v>366</v>
+        <v>401</v>
       </c>
       <c r="C155" t="s" s="0">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="D155" t="s" s="0">
-        <v>75</v>
+        <v>134</v>
       </c>
       <c r="E155" t="s" s="0">
-        <v>127</v>
+        <v>226</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s" s="0">
-        <v>367</v>
+        <v>402</v>
       </c>
       <c r="B156" t="s" s="0">
-        <v>187</v>
+        <v>403</v>
       </c>
       <c r="C156" t="s" s="0">
-        <v>95</v>
+        <v>153</v>
       </c>
       <c r="D156" t="s" s="0">
-        <v>108</v>
+        <v>7</v>
       </c>
       <c r="E156" t="s" s="0">
-        <v>188</v>
+        <v>174</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s" s="0">
-        <v>368</v>
+        <v>404</v>
       </c>
       <c r="B157" t="s" s="0">
-        <v>369</v>
+        <v>405</v>
       </c>
       <c r="C157" t="s" s="0">
-        <v>83</v>
+        <v>102</v>
       </c>
       <c r="D157" t="s" s="0">
-        <v>47</v>
+        <v>108</v>
       </c>
       <c r="E157" t="s" s="0">
-        <v>272</v>
+        <v>303</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s" s="0">
-        <v>370</v>
+        <v>406</v>
       </c>
       <c r="B158" t="s" s="0">
-        <v>335</v>
+        <v>407</v>
       </c>
       <c r="C158" t="s" s="0">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="D158" t="s" s="0">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="E158" t="s" s="0">
-        <v>131</v>
+        <v>408</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s" s="0">
-        <v>371</v>
+        <v>409</v>
       </c>
       <c r="B159" t="s" s="0">
-        <v>372</v>
+        <v>410</v>
       </c>
       <c r="C159" t="s" s="0">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="D159" t="s" s="0">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="E159" t="s" s="0">
-        <v>373</v>
+        <v>279</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s" s="0">
-        <v>374</v>
+        <v>411</v>
       </c>
       <c r="B160" t="s" s="0">
-        <v>375</v>
+        <v>412</v>
       </c>
       <c r="C160" t="s" s="0">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D160" t="s" s="0">
-        <v>79</v>
+        <v>30</v>
       </c>
       <c r="E160" t="s" s="0">
-        <v>185</v>
+        <v>413</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s" s="0">
-        <v>376</v>
+        <v>414</v>
       </c>
       <c r="B161" t="s" s="0">
-        <v>377</v>
+        <v>415</v>
       </c>
       <c r="C161" t="s" s="0">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="D161" t="s" s="0">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="E161" t="s" s="0">
-        <v>322</v>
+        <v>303</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s" s="0">
-        <v>378</v>
+        <v>416</v>
       </c>
       <c r="B162" t="s" s="0">
-        <v>379</v>
+        <v>417</v>
       </c>
       <c r="C162" t="s" s="0">
-        <v>95</v>
+        <v>24</v>
       </c>
       <c r="D162" t="s" s="0">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="E162" t="s" s="0">
-        <v>170</v>
+        <v>418</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s" s="0">
-        <v>380</v>
+        <v>419</v>
       </c>
       <c r="B163" t="s" s="0">
-        <v>381</v>
+        <v>420</v>
       </c>
       <c r="C163" t="s" s="0">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="D163" t="s" s="0">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E163" t="s" s="0">
-        <v>124</v>
+        <v>421</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s" s="0">
-        <v>382</v>
+        <v>422</v>
       </c>
       <c r="B164" t="s" s="0">
-        <v>383</v>
+        <v>423</v>
       </c>
       <c r="C164" t="s" s="0">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D164" t="s" s="0">
-        <v>176</v>
+        <v>65</v>
       </c>
       <c r="E164" t="s" s="0">
-        <v>154</v>
+        <v>424</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s" s="0">
-        <v>384</v>
+        <v>425</v>
       </c>
       <c r="B165" t="s" s="0">
-        <v>385</v>
+        <v>426</v>
       </c>
       <c r="C165" t="s" s="0">
-        <v>13</v>
+        <v>141</v>
       </c>
       <c r="D165" t="s" s="0">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="E165" t="s" s="0">
-        <v>160</v>
+        <v>282</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s" s="0">
-        <v>386</v>
+        <v>427</v>
       </c>
       <c r="B166" t="s" s="0">
-        <v>387</v>
+        <v>428</v>
       </c>
       <c r="C166" t="s" s="0">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="D166" t="s" s="0">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="E166" t="s" s="0">
-        <v>142</v>
+        <v>247</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s" s="0">
-        <v>388</v>
+        <v>429</v>
       </c>
       <c r="B167" t="s" s="0">
-        <v>389</v>
+        <v>357</v>
       </c>
       <c r="C167" t="s" s="0">
-        <v>100</v>
+        <v>13</v>
       </c>
       <c r="D167" t="s" s="0">
-        <v>176</v>
+        <v>55</v>
       </c>
       <c r="E167" t="s" s="0">
-        <v>151</v>
+        <v>358</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s" s="0">
-        <v>390</v>
+        <v>430</v>
       </c>
       <c r="B168" t="s" s="0">
-        <v>391</v>
+        <v>431</v>
       </c>
       <c r="C168" t="s" s="0">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="D168" t="s" s="0">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="E168" t="s" s="0">
-        <v>167</v>
+        <v>376</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s" s="0">
-        <v>392</v>
+        <v>432</v>
       </c>
       <c r="B169" t="s" s="0">
-        <v>393</v>
+        <v>433</v>
       </c>
       <c r="C169" t="s" s="0">
-        <v>130</v>
+        <v>45</v>
       </c>
       <c r="D169" t="s" s="0">
-        <v>79</v>
+        <v>116</v>
       </c>
       <c r="E169" t="s" s="0">
-        <v>394</v>
+        <v>434</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s" s="0">
-        <v>395</v>
+        <v>435</v>
       </c>
       <c r="B170" t="s" s="0">
-        <v>396</v>
+        <v>436</v>
       </c>
       <c r="C170" t="s" s="0">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="D170" t="s" s="0">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="E170" t="s" s="0">
-        <v>397</v>
+        <v>319</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="s" s="0">
-        <v>398</v>
+        <v>437</v>
       </c>
       <c r="B171" t="s" s="0">
-        <v>399</v>
+        <v>438</v>
       </c>
       <c r="C171" t="s" s="0">
-        <v>56</v>
+        <v>8</v>
       </c>
       <c r="D171" t="s" s="0">
-        <v>8</v>
+        <v>81</v>
       </c>
       <c r="E171" t="s" s="0">
-        <v>322</v>
+        <v>135</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="s" s="0">
-        <v>400</v>
+        <v>439</v>
       </c>
       <c r="B172" t="s" s="0">
-        <v>401</v>
+        <v>440</v>
       </c>
       <c r="C172" t="s" s="0">
         <v>112</v>
       </c>
       <c r="D172" t="s" s="0">
-        <v>104</v>
+        <v>70</v>
       </c>
       <c r="E172" t="s" s="0">
-        <v>142</v>
+        <v>202</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="s" s="0">
-        <v>402</v>
+        <v>441</v>
       </c>
       <c r="B173" t="s" s="0">
-        <v>222</v>
+        <v>442</v>
       </c>
       <c r="C173" t="s" s="0">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="D173" t="s" s="0">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="E173" t="s" s="0">
-        <v>223</v>
+        <v>443</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s" s="0">
-        <v>403</v>
+        <v>444</v>
       </c>
       <c r="B174" t="s" s="0">
-        <v>404</v>
+        <v>445</v>
       </c>
       <c r="C174" t="s" s="0">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="D174" t="s" s="0">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="E174" t="s" s="0">
-        <v>405</v>
+        <v>221</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="s" s="0">
-        <v>406</v>
+        <v>446</v>
       </c>
       <c r="B175" t="s" s="0">
-        <v>407</v>
+        <v>447</v>
       </c>
       <c r="C175" t="s" s="0">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="D175" t="s" s="0">
-        <v>70</v>
+        <v>121</v>
       </c>
       <c r="E175" t="s" s="0">
-        <v>408</v>
+        <v>135</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="s" s="0">
-        <v>409</v>
+        <v>448</v>
       </c>
       <c r="B176" t="s" s="0">
-        <v>410</v>
+        <v>323</v>
       </c>
       <c r="C176" t="s" s="0">
-        <v>104</v>
+        <v>60</v>
       </c>
       <c r="D176" t="s" s="0">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="E176" t="s" s="0">
-        <v>127</v>
+        <v>279</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s" s="0">
-        <v>411</v>
+        <v>449</v>
       </c>
       <c r="B177" t="s" s="0">
-        <v>412</v>
+        <v>450</v>
       </c>
       <c r="C177" t="s" s="0">
-        <v>108</v>
+        <v>70</v>
       </c>
       <c r="D177" t="s" s="0">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="E177" t="s" s="0">
-        <v>272</v>
+        <v>191</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="s" s="0">
-        <v>413</v>
+        <v>451</v>
       </c>
       <c r="B178" t="s" s="0">
-        <v>414</v>
+        <v>452</v>
       </c>
       <c r="C178" t="s" s="0">
-        <v>112</v>
+        <v>141</v>
       </c>
       <c r="D178" t="s" s="0">
-        <v>47</v>
+        <v>81</v>
       </c>
       <c r="E178" t="s" s="0">
-        <v>272</v>
+        <v>453</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="s" s="0">
-        <v>415</v>
+        <v>454</v>
       </c>
       <c r="B179" t="s" s="0">
-        <v>416</v>
+        <v>455</v>
       </c>
       <c r="C179" t="s" s="0">
-        <v>87</v>
+        <v>40</v>
       </c>
       <c r="D179" t="s" s="0">
-        <v>112</v>
+        <v>13</v>
       </c>
       <c r="E179" t="s" s="0">
-        <v>151</v>
+        <v>456</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="s" s="0">
-        <v>417</v>
+        <v>457</v>
       </c>
       <c r="B180" t="s" s="0">
-        <v>418</v>
+        <v>458</v>
       </c>
       <c r="C180" t="s" s="0">
-        <v>23</v>
+        <v>65</v>
       </c>
       <c r="D180" t="s" s="0">
-        <v>47</v>
+        <v>112</v>
       </c>
       <c r="E180" t="s" s="0">
-        <v>154</v>
+        <v>148</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="s" s="0">
-        <v>419</v>
+        <v>459</v>
       </c>
       <c r="B181" t="s" s="0">
-        <v>420</v>
+        <v>460</v>
       </c>
       <c r="C181" t="s" s="0">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="D181" t="s" s="0">
-        <v>61</v>
+        <v>7</v>
       </c>
       <c r="E181" t="s" s="0">
-        <v>160</v>
+        <v>191</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="s" s="0">
-        <v>421</v>
+        <v>461</v>
       </c>
       <c r="B182" t="s" s="0">
-        <v>422</v>
+        <v>462</v>
       </c>
       <c r="C182" t="s" s="0">
-        <v>176</v>
+        <v>141</v>
       </c>
       <c r="D182" t="s" s="0">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="E182" t="s" s="0">
-        <v>131</v>
+        <v>463</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="s" s="0">
-        <v>423</v>
+        <v>464</v>
       </c>
       <c r="B183" t="s" s="0">
-        <v>424</v>
+        <v>465</v>
       </c>
       <c r="C183" t="s" s="0">
-        <v>47</v>
+        <v>98</v>
       </c>
       <c r="D183" t="s" s="0">
-        <v>83</v>
+        <v>45</v>
       </c>
       <c r="E183" t="s" s="0">
-        <v>142</v>
+        <v>466</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="s" s="0">
-        <v>425</v>
+        <v>467</v>
       </c>
       <c r="B184" t="s" s="0">
-        <v>426</v>
+        <v>468</v>
       </c>
       <c r="C184" t="s" s="0">
-        <v>61</v>
+        <v>141</v>
       </c>
       <c r="D184" t="s" s="0">
-        <v>13</v>
+        <v>98</v>
       </c>
       <c r="E184" t="s" s="0">
-        <v>427</v>
+        <v>247</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="s" s="0">
-        <v>428</v>
+        <v>469</v>
       </c>
       <c r="B185" t="s" s="0">
-        <v>126</v>
+        <v>470</v>
       </c>
       <c r="C185" t="s" s="0">
-        <v>37</v>
+        <v>141</v>
       </c>
       <c r="D185" t="s" s="0">
-        <v>65</v>
+        <v>24</v>
       </c>
       <c r="E185" t="s" s="0">
-        <v>127</v>
+        <v>471</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="s" s="0">
-        <v>429</v>
+        <v>472</v>
       </c>
       <c r="B186" t="s" s="0">
-        <v>430</v>
+        <v>473</v>
       </c>
       <c r="C186" t="s" s="0">
-        <v>70</v>
+        <v>102</v>
       </c>
       <c r="D186" t="s" s="0">
-        <v>79</v>
+        <v>112</v>
       </c>
       <c r="E186" t="s" s="0">
-        <v>160</v>
+        <v>279</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="s" s="0">
-        <v>431</v>
+        <v>474</v>
       </c>
       <c r="B187" t="s" s="0">
-        <v>432</v>
+        <v>475</v>
       </c>
       <c r="C187" t="s" s="0">
-        <v>47</v>
+        <v>7</v>
       </c>
       <c r="D187" t="s" s="0">
-        <v>116</v>
+        <v>51</v>
       </c>
       <c r="E187" t="s" s="0">
-        <v>127</v>
+        <v>247</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="s" s="0">
-        <v>433</v>
+        <v>476</v>
       </c>
       <c r="B188" t="s" s="0">
-        <v>264</v>
+        <v>477</v>
       </c>
       <c r="C188" t="s" s="0">
-        <v>56</v>
+        <v>7</v>
       </c>
       <c r="D188" t="s" s="0">
-        <v>120</v>
+        <v>153</v>
       </c>
       <c r="E188" t="s" s="0">
-        <v>160</v>
+        <v>478</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="s" s="0">
-        <v>434</v>
+        <v>479</v>
       </c>
       <c r="B189" t="s" s="0">
-        <v>435</v>
+        <v>480</v>
       </c>
       <c r="C189" t="s" s="0">
-        <v>42</v>
+        <v>85</v>
       </c>
       <c r="D189" t="s" s="0">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="E189" t="s" s="0">
-        <v>405</v>
+        <v>260</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="s" s="0">
-        <v>436</v>
+        <v>481</v>
       </c>
       <c r="B190" t="s" s="0">
-        <v>437</v>
+        <v>482</v>
       </c>
       <c r="C190" t="s" s="0">
-        <v>91</v>
+        <v>116</v>
       </c>
       <c r="D190" t="s" s="0">
-        <v>104</v>
+        <v>75</v>
       </c>
       <c r="E190" t="s" s="0">
-        <v>151</v>
+        <v>483</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="s" s="0">
-        <v>438</v>
+        <v>484</v>
       </c>
       <c r="B191" t="s" s="0">
-        <v>439</v>
+        <v>485</v>
       </c>
       <c r="C191" t="s" s="0">
-        <v>61</v>
+        <v>112</v>
       </c>
       <c r="D191" t="s" s="0">
-        <v>83</v>
+        <v>108</v>
       </c>
       <c r="E191" t="s" s="0">
-        <v>226</v>
+        <v>148</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="s" s="0">
-        <v>440</v>
+        <v>486</v>
       </c>
       <c r="B192" t="s" s="0">
-        <v>166</v>
+        <v>487</v>
       </c>
       <c r="C192" t="s" s="0">
-        <v>28</v>
+        <v>94</v>
       </c>
       <c r="D192" t="s" s="0">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E192" t="s" s="0">
-        <v>167</v>
+        <v>329</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="s" s="0">
-        <v>441</v>
+        <v>488</v>
       </c>
       <c r="B193" t="s" s="0">
-        <v>442</v>
+        <v>489</v>
       </c>
       <c r="C193" t="s" s="0">
-        <v>95</v>
+        <v>153</v>
       </c>
       <c r="D193" t="s" s="0">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="E193" t="s" s="0">
-        <v>220</v>
+        <v>490</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="s" s="0">
-        <v>443</v>
+        <v>491</v>
       </c>
       <c r="B194" t="s" s="0">
-        <v>444</v>
+        <v>492</v>
       </c>
       <c r="C194" t="s" s="0">
-        <v>176</v>
+        <v>55</v>
       </c>
       <c r="D194" t="s" s="0">
-        <v>23</v>
+        <v>116</v>
       </c>
       <c r="E194" t="s" s="0">
-        <v>348</v>
+        <v>493</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="s" s="0">
-        <v>445</v>
+        <v>494</v>
       </c>
       <c r="B195" t="s" s="0">
-        <v>446</v>
+        <v>179</v>
       </c>
       <c r="C195" t="s" s="0">
-        <v>100</v>
+        <v>134</v>
       </c>
       <c r="D195" t="s" s="0">
-        <v>70</v>
+        <v>24</v>
       </c>
       <c r="E195" t="s" s="0">
-        <v>139</v>
+        <v>163</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="s" s="0">
-        <v>447</v>
+        <v>495</v>
       </c>
       <c r="B196" t="s" s="0">
-        <v>448</v>
+        <v>496</v>
       </c>
       <c r="C196" t="s" s="0">
-        <v>112</v>
+        <v>141</v>
       </c>
       <c r="D196" t="s" s="0">
-        <v>83</v>
+        <v>116</v>
       </c>
       <c r="E196" t="s" s="0">
-        <v>151</v>
+        <v>194</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="s" s="0">
-        <v>449</v>
+        <v>497</v>
       </c>
       <c r="B197" t="s" s="0">
-        <v>450</v>
+        <v>498</v>
       </c>
       <c r="C197" t="s" s="0">
-        <v>37</v>
+        <v>141</v>
       </c>
       <c r="D197" t="s" s="0">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="E197" t="s" s="0">
-        <v>195</v>
+        <v>215</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="s" s="0">
-        <v>451</v>
+        <v>499</v>
       </c>
       <c r="B198" t="s" s="0">
-        <v>452</v>
+        <v>500</v>
       </c>
       <c r="C198" t="s" s="0">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D198" t="s" s="0">
-        <v>13</v>
+        <v>89</v>
       </c>
       <c r="E198" t="s" s="0">
-        <v>394</v>
+        <v>501</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="s" s="0">
-        <v>453</v>
+        <v>502</v>
       </c>
       <c r="B199" t="s" s="0">
-        <v>454</v>
+        <v>503</v>
       </c>
       <c r="C199" t="s" s="0">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="D199" t="s" s="0">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="E199" t="s" s="0">
-        <v>139</v>
+        <v>263</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="s" s="0">
-        <v>455</v>
+        <v>504</v>
       </c>
       <c r="B200" t="s" s="0">
-        <v>456</v>
+        <v>505</v>
       </c>
       <c r="C200" t="s" s="0">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D200" t="s" s="0">
-        <v>23</v>
+        <v>94</v>
       </c>
       <c r="E200" t="s" s="0">
-        <v>142</v>
+        <v>506</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="s" s="0">
-        <v>457</v>
+        <v>507</v>
       </c>
       <c r="B201" t="s" s="0">
-        <v>458</v>
+        <v>508</v>
       </c>
       <c r="C201" t="s" s="0">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="D201" t="s" s="0">
-        <v>91</v>
+        <v>45</v>
       </c>
       <c r="E201" t="s" s="0">
-        <v>160</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
